--- a/deuChatbot/research_result/table_to_json(2000_200).xlsx
+++ b/deuChatbot/research_result/table_to_json(2000_200).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F301"/>
+  <dimension ref="A1:F401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20535,6 +20535,6812 @@
         </is>
       </c>
     </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 디자인조형학과의 실기시험에 대한 정보를 포함하고 있지 않다고 주장하지만, 제공된 정보에는 실기시험에 대한 구체적인 내용이 포함되어 있습니다. 따라서 사실과 일치하지 않으며, 여러 가지 부정확한 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 제공된 정보와 상충하는 내용을 담고 있습니다. 예를 들어, 실기시험의 내용이 포함되어 있지 않다고 하면서도 일반적인 실기시험의 요소를 언급하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 디자인조형학과의 실기시험에 대한 질문에 대한 답변으로 적절하지 않습니다. 제공된 정보와 관련이 있지만, 주제를 벗어나 일반적인 정보로 흐르고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 주제와 관련된 정보가 부족하여 전체적으로 일관된 메시지를 전달하지 못하고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 제공된 정보의 사실과 크게 다르며, 실기시험에 대한 구체적인 내용을 잘못 전달하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 전반적으로 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 낮은 점수를 받고 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 주제와 관련된 정보가 부족하여 의미적으로 적절하지 않습니다. 제공된 정보와의 연관성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 주제와의 관련성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>0.6459565755896619</v>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대해서 설명해줘.</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 디자인조형학과의 실기시험 내용이 포함되어 있지 않습니다. 디자인조형학과의 경우, 실기시험은 일반적으로 그림 그리기, 모델링, 색채 이론 등 다양한 요소를 평가하는 것이 일반적입니다.
+만약 디자인조형학과의 실기시험에 대한 자세한 정보가 필요하다면, 해당 대학이나 학교의 공식 웹사이트나 입학 안내서를 참조해 보시는 것이 좋습니다. 또한 입학사정관에게 직접 문의하시거나, 관련 커뮤니티에서 정보를 얻으실 수도 있습니다.
+만약 다른 전공에 대한 실기시험에 대해 궁금하신다면, 해당 전공과 관련된 정보를 제공해 주시면 자세한 답변을 드리겠습니다.</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보가 모두 포함되어 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 일치합니다. 서로 다른 실기종목에 대한 정보가 명확하게 구분되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 실기종목, 준비물, 실기주제, 화지크기 및 시간에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러우며, 읽기 쉽습니다. 표현이 자연스럽고 이해하기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다. 정보의 흐름이 일관되고 이해하기 쉽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보나 누락된 내용이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 직관적이며, 이해하기 쉽습니다. 정보가 잘 정리되어 있어 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>0.8585144868353518</v>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목과 준비물, 실기주제, 화지크기, 시간에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목은 '기초디자인'과 '사고의 전환' 두 가지가 있습니다.
+1. **기초디자인**
+   - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+   - **실기주제**: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+     - 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+     - 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+   - **화지크기**: 켄트지3절
+   - **시간**: 5시간
+2. **사고의 전환**
+   - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+   - **실기주제**: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+     - 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+     - 주제B: 바이러스, 자유, 여행, 계절, 꿈
+   - **화지크기**: 켄트지2절
+   - **시간**: 5시간
+위와 같이 디자인조형학과의 실기종목과 준비물, 실기주제, 화지크기 및 시간이 정해져 있습니다.</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 대회 목록과 관련된 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 대회 목록과 설명이 서로 충돌하지 않고 일관성을 유지합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 요청된 정보에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 유창하게 작성되었으나, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다. 예를 들어, "각종국제대회"와 "주니어팀 소속으로 출전한 대회만 인정" 부분에서 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 대회에 대한 설명이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있으며, 사실에 대한 왜곡이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 다소 복잡하게 느껴질 수 있어 완벽한 이해를 위해 추가적인 설명이 필요할 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>0.9136782960733821</v>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회에는 어떤 대회들이 있는지 알려줘.</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과 모집종목별 인정대회에는 다음과 같은 대회들이 있습니다.
+배드민턴(남)의 경우:
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회 (주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)의 경우:
+-춘계한국고등학교축구연맹전
+-추계한국고등학교축구연맹전
+-대한축구협회장배전국고등학교축구대회
+-문화체육관광부장관기전국고등학교축구대회
+-문화체육관광부장관배전국고등학교축구대회
+-백운기전국고등학교축구대회
+-전국고등축구리그(권역별고교축구리그)
+-전국고등축구리그왕중왕전
+-무학기전국고등학교축구대회
+-청룡기전국고등학교축구대회
+-백록기전국고등학교축구대회
+-금강대기전국고등학교축구대회
+-대통령금배전국고등학교축구대회
+-금석배전국고등학생축구대회
+-부산MBC전국고등학생축구대회
+-K리그 U18 챔피언십
+-K리그 U18 챔피언십왕중왕전
+이러한 대회들에서 입상자들이 경기지도학과에 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있습니다. 주제A와 주제B의 내용이 일치하며, 시험 당일의 주제 선정 방식도 정확하게 설명되어 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않습니다. 모든 내용이 원본과 일치하여 일관성을 유지하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊습니다. 기초디자인 실기시험의 주제에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄럽습니다. 읽기 쉽고 자연스러운 표현이 사용되었습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 전체적으로 일관된 흐름을 가지고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보나 누락된 내용이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>0.825950380605789</v>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에 있는 주제들을 모두 알려줘.</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과의 기초디자인 실기시험에서 사용되는 주제는 다음과 같습니다:
+1. 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+2. 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+당일에는 이 두 가지 주제 중에서 각 1개씩 선정하여 연결된 주제를 추첨으로 결정합니다. 예시로는 '잠자리와 저울'과 같은 주제가 될 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 학생부 교과 전형에서 출결 점수가 반영된다고 주장하고 있지만, 원문에서는 출결 점수가 반영되지 않는다고 명확히 언급하고 있습니다. 따라서 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 정보를 제공하고 있습니다. 원문은 출결 점수가 반영되지 않는다고 명시하고 있는데, 생성된 응답은 반영된다고 주장하므로 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 전형에 대한 정보를 제공하지만, 원문에서 질문한 내용과는 관련이 없습니다. 원문은 학생부 교과 전형에 대한 질문인데, 생성된 응답은 학생부 종합 전형에 대한 정보를 포함하고 있어 부분적으로 관련성이 있지만, 주제에서 벗어나 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원문과의 관계가 명확하지 않아 논리적인 흐름이 부족합니다. 원문과의 연결이 약해 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 상충하는 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받았습니다. 전반적으로 원문과의 관계가 부정확하고 일관성이 없기 때문에 전체적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 의미적으로 일치하지 않으며, 잘못된 정보를 전달하고 있습니다. 따라서 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 어렵지 않지만, 내용의 정확성 문제로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>0.5967682899050095</v>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>동의대학교 학생부교과 전형에서 출결 점수가 반영되나요?</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 학생부종합 전형에서 출결이 반영됩니다. 
+전형 요소 반영 비율에 따르면, 출결은 실기/실적(경기실적우수자전형)에서 12%의 비중을 차지합니다.
+따라서 동의대학교 학생부교과 전형에서는 출결 점수가 일부 반영됩니다.</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모집 인원과 전형에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 의미 전달이 적절합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>0.9376279612575764</v>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>2023년 인문사회과학대학의 국어국문학과에서 가군 일반 학생 전형으로는 17명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 모집 인원에 대한 정보를 완전히 잘못 전달하고 있습니다. 원본 텍스트에서는 영어영문학과의 모집 인원이 28명이라고 명확히 언급하고 있지만, 생성된 응답은 해당 정보가 없다고 주장하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트의 정보와 일치하지 않으며, 서로 모순되는 주장을 하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 질문에 대한 직접적인 답변을 제공하지 않으며, 관련성이 낮습니다. 그러나 추가 정보를 제공하는 링크는 어느 정도 관련성을 가질 수 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 관련성이 부족하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 차원에서 매우 낮은 점수를 받았으며, 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 정확성 문제로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>0.5142930321437283</v>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 영어영문학과에서 다군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 인문사회과학대학의 영어영문학과에 대한 모집인원이 없습니다. 다른 학과들의 모집인원만 기재되어 있습니다. 
+추가 정보를 원하시면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 참조해보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모집 인원에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 가지고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>0.7773394548845104</v>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>의료보건생활대학 간호학과 나군 일반학생 전형 모집 인원을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과 나군 일반 학생 전형의 정원 내 모집 인원은 22명입니다.</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모든 점수와 등급이 일치합니다. 추가된 설명도 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않습니다. 모든 등급과 점수가 일관되게 제시되고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 포인트를 직접적으로 다루고 있으며, 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다. 자연스러운 표현이 사용되었습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 명확합니다. 각 등급과 점수가 잘 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>0.9106856453894788</v>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>수능 영어 등급에 따른 점수를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 영어 등급에 따른 점수는 다음과 같습니다:
+- 등급 1 : 139점
+- 등급 2 : 131점
+- 등급 3 : 123점
+- 등급 4 : 115점
+- 등급 5 : 107점
+- 등급 6 : 99점
+- 등급 7 : 91점
+- 등급 8 : 83점
+- 등급 9 : 75점
+이 점수는 각 영어 등급에 따라 수능에서 받을 수 있는 최대 점수를 나타냅니다.</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있다고 잘못된 정보를 제공하고 있습니다. 원문에서는 예술고 학생이 지원할 수 없다고 명확히 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 내용을 담고 있어 일관성이 없습니다. 원문은 예술고 학생이 지원할 수 없다고 명시하고 있지만, 생성된 응답은 지원 가능하다고 주장하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 잘못된 정보를 바탕으로 하고 있어 주제와의 관련성이 낮습니다. 원문에서의 핵심 정보는 예술고 학생의 지원 불가입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로 나열된 조건을 제시하고 있지만, 원문과의 불일치로 인해 논리적 일관성이 떨어집니다. 원문과의 연결이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 사실과 다르며, 예술고 학생이 지원할 수 있다고 잘못된 정보를 제공합니다. 원문과의 사실적 차이가 큽니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 여러 차원에서 원문과의 불일치가 크며, 전반적으로 낮은 품질을 보입니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 전혀 없으며, 잘못된 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 정확성 문제로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>0.6971550413248573</v>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예술고 학생도 나군 학생부교과 농어촌학생전형으로 지원 가능합니다. 그러나 지원 자격에 대한 조건이 있습니다.
+1. **6년 과정**: 중학교와 고등학교 재학 기간 동안 본인 및 부모 모두가 농어촌 지역에 거주한 자여야 합니다.
+2. **12년 과정**: 초등학교부터 고등학교까지 전 교육과정을 농어촌 지역의 학교에서 이수하고 거주한 자여야 합니다.
+따라서 예술고 학생이 지원하려면 위 조건들을 충족해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답에서 "4등급에서 레저스포츠학과 여자 제자리 멀리뛰기의 기록은 217cm 이상"이라고 언급했으나, 원본 텍스트에서는 4등급의 기록이 218~221 cm로 명시되어 있어 정확하지 않습니다. 따라서 일부 사실이 왜곡되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부분 일치하지만, 기록의 범위가 다르게 표현되어 있어 일관성이 떨어집니다. "217cm 이상"이라는 표현은 원본의 "218~221 cm"와 일치하지 않으므로 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 4등급 기록과 배점에 대한 정보를 제공하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, "217cm 이상"이라는 표현이 원본과 다르기 때문에 약간의 혼란을 줄 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 기록의 범위에 대한 불일치로 인해 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답의 기록 정보가 원본 텍스트와 다르기 때문에 정확성이 떨어집니다. 원본의 기록 범위는 218~221 cm인데, 생성된 응답에서는 217cm 이상으로 잘못 기재되었습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 관련성은 높지만, 사실성과 정확성에서 문제가 있어 전반적인 품질이 떨어집니다. 따라서 중간 점수를 부여합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 대체로 적합하지만, 기록 범위의 불일치로 인해 약간의 부적합성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 기록의 불일치로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>0.8633090815718879</v>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>4등급에서 레저스포츠학과 여자 제자리 멀리뛰기의 기록은 217cm 이상이며, 이에 대한 배점은 275점입니다.
+이 정보는 다음과 같이 정리되었습니다:
+- 기록: 217cm 이상
+- 배점: 275점
+만약 다른 질문이나 추가적인 정보가 필요하시다면 알려주세요.</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 경기지도학과의 출결 반영 비율이 12%라는 사실을 정확하게 반영하고 있습니다. 그러나 추가적으로 제공된 학생부교과와 서류(경기실적)의 비율은 원본 텍스트에 포함되어 있지 않으므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 출결 반영 비율과 일치하지만, 추가적인 정보(학생부교과와 서류 비율)는 원본 텍스트와 일치하지 않거나 관련이 없는 정보입니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 출결 반영 비율에 대한 정보를 직접적으로 다루고 있습니다. 추가적인 정보도 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르며, 읽기에도 무리가 없습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 추가 정보가 원본 텍스트와의 연결이 약간 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 출결 반영 비율에 대한 정보는 정확하지만, 추가된 비율 정보는 원본 텍스트에 포함되어 있지 않으므로 정확성 점수는 약간 낮습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 생성된 응답은 높은 품질을 유지하고 있으며, 여러 차원에서 긍정적인 평가를 받을 수 있습니다. 그러나 일부 정보의 부정확성으로 인해 완벽한 점수는 아닙니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다. 그러나 추가된 정보가 원본과의 관련성을 약간 떨어뜨립니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 다만, 추가 정보가 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>0.7423176508491822</v>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>동의대학교 경기지도학과 출결 반영 비율을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>동의대학교 경기지도학과의 출결 반영 비율은 12%입니다.
+출결 반영 비율은 다음과 같습니다:
+- 학생부교과: 18%
+- 출결: 12%
+- 서류(경기실적): 70%
+이 정보는 "나군 실기/실적(경기실적우수자전형) 전형요소 반영비율" 섹션에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다. 모집 인원과 학과명, 학년도 모두 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관성이 있으며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 가지고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>0.9452858198564391</v>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 물리치료학과에 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 날짜 정보를 정확하게 반영하고 있으며, 추가적인 정보도 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가된 정보도 원본의 맥락과 잘 맞아떨어집니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 실기고사 일정에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 이해하기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 정확합니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>0.5066519286193697</v>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사 일정은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사는 2024년 1월 17일(수)에 진행됩니다. 
+대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후, 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 "수능 최저 학력 기준은 없습니다."라는 사실을 명확히 반영하지 않고 있으며, 응용화학과의 수능 최저기준이 없다는 정보를 제공하지 않고 있습니다. 대신, 확인 방법에 대한 설명이 포함되어 있지만, 이는 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 수능 최저기준이 없다는 점에서 일관성이 부족합니다. 응답은 확인 방법을 제시하지만, 이는 원본의 내용을 왜곡합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 응용화학과의 수능 최저기준에 대한 질문에 대한 답변을 제공하려고 하지만, 직접적인 정보는 제공하지 않고 있습니다. 그러나 확인 방법을 제시하여 관련성을 유지하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 내용의 정확성에 대한 문제로 인해 약간의 흐름이 방해받을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답은 확인 방법을 제시하는 구조로 되어 있지만, 원본 텍스트의 핵심 내용을 반영하지 않아 논리적 일관성이 떨어집니다. 수능 최저기준이 없다는 점이 명확히 전달되지 않아 일관성이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 수능 최저기준이 없다는 사실을 정확히 반영하지 않으며, 잘못된 정보로 이어질 수 있는 내용을 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받으며, 여러 차원에서 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 질문의 맥락에 맞는 정보를 제공하려고 하지만, 핵심 사실을 놓치고 있어 의미적으로 완벽하게 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉬운 구조로 되어 있으며, 확인 방법이 명확하게 제시되어 있습니다. 그러나 핵심 정보의 부재로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>0.4224613390152835</v>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 응용화학과의 수능 최저기준은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 응용화학과에 대한 정보가 제공된 문서에서 직접 확인할 수 있는 내용은 없습니다. 응용화학과의 경우, 현재 문서에는 해당 학과의 정보가 포함되어 있지 않아서 수능 최저기준을 알 수 없습니다.
+만약 동의대학교의 2024학년도 응용화학과의 수능 최저기준이 궁금하다면, 다음과 같은 방법으로 확인하실 수 있습니다:
+1. 동의대학교의 공식 웹사이트를 방문하여 입시 정보 섹션을 확인합니다.
+2. "2024학년도 수능 최저기준" 또는 "응용화학과 입시 안내"와 같은 키워드로 검색합니다.
+3. 제공된 자료에서 응용화학과의 수능 최저기준을 찾아보세요.
+또는, 직접 동의대학교에 문의하시거나, 입시 관련 전문가에게 상담을 받으시면 더욱 정확한 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 2024학년도에 신설된 학과에 대한 정보가 잘못되었습니다. 원본 텍스트에 명시된 학과 목록과는 전혀 다른 학과들이 언급되고 있으며, 아동학과와 금융경영학과는 신설된 학과 목록에 포함되어 있지 않습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 정보를 제공합니다. 원본 텍스트의 학과 목록과 생성된 응답의 학과 목록이 서로 상충하므로 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트는 신설된 학과에 대한 정보를 제공하는 반면, 생성된 응답은 다른 학과와 변경 사항에 대한 정보를 포함하고 있어 주제와 관련성이 없습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용이 부정확하여 전체적인 맥락에서의 유창성은 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 학과의 변경 사항을 나열하고 있지만, 원본 텍스트와의 연결이 부족하여 일관된 흐름이 부족합니다. 그러나 각 항목은 논리적으로 연결되어 있어 어느 정도의 일관성을 유지하고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 신설된 학과에 대한 정보가 잘못되었으며, 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 관계가 부족합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에서 벗어나 있으며, 일부 내용은 적절하지 않습니다. 그러나 일부 정보는 의미적으로 연결될 수 있는 부분이 있어 낮은 점수를 부여했습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 어렵지 않습니다. 그러나 내용의 부정확성으로 인해 전체적인 이해에는 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>0.5357000480074678</v>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>2024학년도에 동의대학교에서 신설된 학과로는 "아동학과"와 "금융경영학과"가 있습니다. 이외에도 여러 학과의 명칭이 변경되었거나 분리되었습니다.
+- 아동학과 (原来是“保育·가정상담학과”的改名)
+- 금융경영학과 (原来是“经济金融保险学和”的改名)
+其他更改包括：
+- 经济金融保险学和 分为 金融经营学和
+- 信息经营管理学部（管理信息系统，电子商务） 分为 信息经营学和，电子商务学和
+- 不动产金融·资产经营学和 分为 不动产资产经营学部（不动产投资学，不动产开发经营学）
+- 机械汽车机器人零部件工程学部（机械工程，机器人·自动化工程，汽车工程） 分为 机械工学和，机器人自动化工学和，汽车工学和
+- 新材料工程学部（金属材料工程，电子电介质材料工程，高分子材料工程） 分为 新材料工学和，高分子纳米工学和
+- 建筑工程学部（建筑学(5年制)，建筑工程，土木工程，城市规划） 分为 建筑学(5年制)、建筑工程、土木工程、城市规划
+- 化学环境工程学部（化学工程，环境工程，应用化学） 分为 化学工学和，环境工学和，应用化学
+这些更改反映了学校在课程设置上的调整和完善。</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 서류와 면접의 반영 비율을 잘못 제시하고 있습니다. 원본 텍스트에서는 서류가 70%, 면접이 30%라고 명시되어 있지만, 생성된 응답에서는 서류가 60%, 면접이 40%로 잘못 기재되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 상충하는 정보를 제공합니다. 원본의 비율과 생성된 비율이 다르기 때문에 일관성이 없습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문의 주제와 관련이 있으며, 전형요소 반영비율에 대한 정보를 제공하고 있습니다. 따라서 관련성은 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 약간의 어색함이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 원본과의 불일치로 인해 완전한 일관성은 없습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 비율이 잘못 기재되어 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 관련성은 높지만, 사실성과 정확성이 매우 낮아 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 잘못된 정보를 포함하고 있어 원본의 의미와 일치하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>0.8446181909300029</v>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 다음과 같습니다:
+- 서류(학생부): 60%
+- 면접: 40%
+이 정보는 제공된 데이터에서 직접 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 수능 가산점을 적용하는 학과와 가산점 부여 조건을 모두 포함하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 포인트에 직접적으로 관련이 있으며, 적절한 정보를 제공합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 전반적으로 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>0.8688189274703129</v>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 수능 가산점을 적용하는 학과는 어디인지 알려주세요.</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교에서 수능 가산점을 적용하는 학과는 의료·보건·생활대학, 공과대학, ICT융합공과대학 모집단위입니다.
+이들 학과에서는 수학(미적분 또는 기하) 응시자에게 수학 취득 표준점수의 10% 가산점을 부여하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 동의대학교의 2024학년도 가군 수능 성적 반영에 대한 정보를 정확하게 전달하고 있으며, 수능 성적이 100% 반영된다는 점을 잘 설명하고 있습니다. 그러나 "주로 일반학생전형에서 반영됩니다"라는 표현은 다소 모호하게 느껴질 수 있으며, 모든 모집단위에서 수능 성적이 100% 반영된다는 점을 명확히 하지 않았습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트와 일관되게 수능 성적 반영 비율을 설명하고 있습니다. 다만, 레저스포츠학과와 태권도학과의 수능 성적 반영 비율에 대한 추가 정보가 포함되어 있어, 원본 텍스트의 정보와는 약간의 차이가 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 수능 성적 반영 방법에 대한 정보를 잘 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 레저스포츠학과와 태권도학과에 대한 추가 정보가 포함되어 있어 약간의 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으나, 레저스포츠학과와 태권도학과의 수능 성적 반영 비율에 대한 정보가 추가되어 있어 원본의 정확성과는 약간의 차이가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 잘 수행되고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 다만, 일부 문장에서 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>0.7981290426725237</v>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 가군에서 수능 성적을 어떻게 반영하나요?</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 가군에서는 수능 성적이 주로 일반학생전형에서 반영됩니다. 특히, 레저스포츠학과와 태권도학과를 제외한 모든 모집단위는 수능 성적을 100% 반영합니다.
+가군 수능(일반학생전형)의 전형요소 반영비율은 다음과 같습니다:
+- 가군 수능 (일반학생전형): 전 모집단위(레저스포츠학과, 태권도학과 제외)에서 수능이 100% 반영됩니다.
+- 가군 실기/실적 (일반학생전형): 레저스포츠학과와 태권도학과에서는 수능이 30%, 실기가 70%로 반영됩니다.
+따라서, 일반적으로 동의대학교는 가군에서 수능 성적이 학생들의 입학에 중요한 역할을 합니다.</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 날짜와 관련된 정보가 정확하며, 실기고사가 레저스포츠학과와 태권도학과에서 실시된다는 추가 정보도 포함되어 있어 사실적입니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 날짜와 관련된 정보가 일치합니다. 추가된 정보도 원본의 내용을 보완합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으며, 실기고사에 대한 구체적인 정보를 제공하여 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 연결되어 있으며, 정보가 명확하게 전달됩니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞아떨어지며, 적절한 의미를 전달합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>0.7638255934615988</v>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기고사 날짜는 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 레저스포츠학과와 태권도학과에서 실시되며, 날짜는 2024년 1월 16일(화)입니다.</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 사실을 정확하게 반영하고 있습니다. 그러나 추가된 내용(수학 반응 영역에 대한 설명)은 원본 텍스트에 포함되어 있지 않으므로, 완전한 정확성은 아닙니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 정보를 제공하고 있습니다. 그러나 추가된 내용이 원본 텍스트와의 일관성을 약간 해칠 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 주요 포인트를 잘 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 추가된 내용이 약간의 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있지만, 추가된 정보가 원본에 포함되어 있지 않기 때문에 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으며, 전반적으로 높은 점수를 받을 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 원본 텍스트의 맥락과 잘 맞습니다. 그러나 추가된 내용이 맥락을 약간 벗어날 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 다만, 추가된 내용이 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>0.7707926769971416</v>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 나군 수능(일반학생전형) 전형에서는 어떤 모집단위가 제외되나요?</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서는 한의예과와 디자인조형학과, 체육학과, 경기지도학과가 제외되었습니다. 
+특히 한의예과는 수학 반응 영역에 따라 다음과 같이 분류됩니다:
+- 수학(미적분/기하) 응시자는 수학 취득 표준점수의 10%를 가산점으로 부여받습니다.
+- 수학(확률과통계) 응시자는 일반적으로 수능 반영 영역이 정해집니다.
+따라서, 나군 수능(일반학생전형)에서는 한의예과와 디자인조형학과, 체육학과, 경기지도학과가 제외된 상태에서 수능 위주로 모집됩니다.</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 수능 최저기준이 적용되지 않는다는 사실을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하며, 다군 전형에 대한 추가적인 세부사항을 포함하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 이어져 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 정리되어 있어 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>0.8288242447318895</v>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 다군 전형에서 수능 최저기준이 적용되나요?</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. 
+다군 전형의 경우, 해당 전형 요소 반영 비율을 확인할 수 있으며, 그 결과 수능에 대한 비율은 100%로 설정되어 있지만, 실제 수능 최저 기준은 없음을 알 수 있습니다.
+관련 정보는 다음과 같습니다:
+- 전형명: 다군 수능(일반학생전형) 전 모집단위
+- 모집 인원: 180명
+- 사정 단계: 일괄 합산
+- 전형요소 반영비율(%): 
+  - 학생부 교과: 0%
+  - 출결: 0%
+  - 서류: 0%
+  - 면접: 0%
+  - 실기: 0%
+  - 수능: 100%
+- 수능최저기준: 수능최저기준 없음
+따라서, 2024학년도 동의대학교 다군 전형에서는 수능 최저 기준이 적용되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 "보육·가정상담학과"가 "아동학과"로 변경되었다고 언급하고 있으며, 이는 원본 텍스트의 내용과 일치합니다. 그러나 원본 텍스트에는 여러 학과가 나열되어 있는데, 생성된 응답은 그 중 하나만 언급하고 있어 다소 불완전합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 내용을 반영하고 있지만, 전체 목록을 제공하지 않기 때문에 일관성이 떨어집니다. 원본 텍스트의 모든 학과를 언급하지 않음으로써 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 직접적으로 관련이 있으며, 학부에서 학과로 분리된 학과에 대한 정보를 제공합니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 전체 목록을 포함하지 않음으로써 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있지만, 모든 학과를 포함하지 않아서 완전한 정확성을 제공하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되었지만, 일관성과 완전성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다. 그러나 모든 학과를 언급하지 않음으로써 의미의 완전성이 떨어질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 전체 맥락을 이해하기 위해서는 추가 정보가 필요할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>0.5528244890326994</v>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 어떤 학과가 학부에서 학과로 분리되었나요?</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 "보육·가정상담학과"가 "아동학과"로 명칭이 변경되었습니다. 또한 이 학과는 학부에서 학과로 분리되었습니다.
+따라서, 2024학년도 동의대에서 학부에서 학과로 분리된 학과는 "보육·가정상담학과"입니다.</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원서접수 마감일과 시간을 정확하게 반영하고 있으며, 추가적인 정보도 제공하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 마감일과 시간에 대한 정보가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으며, 관련된 추가 정보를 제공합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 흐름이 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 전달됩니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞아떨어집니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>0.8224051349468643</v>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 전형일정에서 원서접수 마감일은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에 따르면, 원서접수(인터넷) 마감일은 2024년 1월 6일까지입니다. 마감 시간은 오후 18시까지입니다. 자세한 일정과 기타 정보는 입학안내 홈페이지를 참조하시거나 제공된 링크를 통해 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 동의대학교 2024학년도 전형 요소 변화에 대한 정보가 아닌, 학과 명칭 변경에 대한 잘못된 정보를 포함하고 있습니다. 원본 텍스트의 내용과 전혀 일치하지 않으며, 사실과 다릅니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 전혀 일치하지 않으며, 서로 상충하는 정보를 제공합니다. 원본의 전형 요소 변화와 관련된 내용이 아닌 다른 주제를 다루고 있습니다.
+3. Relevance Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 전형 요소 변화에 대한 질문에 대한 답변으로 적절하지 않습니다. 주제가 완전히 다릅니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부적절함으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 내부적으로는 일관성을 가지고 있으나, 원본 텍스트와의 관련성이 없기 때문에 전체적인 맥락에서의 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 주제와 관련이 없습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로 이해하기 쉬운 문장으로 구성되어 있으나, 내용의 부적절함으로 인해 전체적인 이해도는 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>0.6354378306146733</v>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 전형 요소 변화가 있는 전형은 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 전형 요소 변화가 있는 전형들은 주로 학과 명칭 변경과 관련된 것으로 보입니다. 구체적으로는 다음과 같은 내용들이 있습니다:
+1. **아동학과** - 이전에는 보육·가정상담학과였으나, 2024년도부터 아동학과로 명칭이 변경되었습니다.
+2. **금융경영학과** - 이전에는 경제금융보험학과였으며, 2024년도부터 금융경영학과로 명칭이 변경되었습니다.
+이 외에도 여러 학과들이 분리 또는 통합되며, 일부 학과의 전공명칭이 변경되었습니다. 이러한 변화들은 각 전형별로 반영될 것으로 보입니다. 자세한 내용은 공식 웹사이트를 참조하시거나, 해당 기관에 문의하시는 것이 좋습니다. 더 자세한 정보는 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)에서 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중이 70%라는 사실을 정확하게 반영하고 있습니다. 추가적으로 레저스포츠학과와 태권도학과를 제외한 모든 모집단위에서 실기의 비중이 낮다는 설명도 포함되어 있으나, 이는 원문에 명시된 내용은 아닙니다. 그러나 전체적으로 사실관계는 정확합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 일관되게 실기 비중이 70%임을 강조하고 있습니다. 그러나 레저스포츠학과와 태권도학과에 대한 언급은 원문에 포함되어 있지 않으므로, 이 부분에서 약간의 일관성 부족이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제시된 주제와 관련이 깊으며, 실기 비중에 대한 정보를 명확하게 다루고 있습니다. 추가적인 정보도 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽힙니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 사실적으로 정확하며, 실기 비중이 70%라는 정보를 올바르게 전달하고 있습니다. 추가적인 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 차원에서 높은 품질을 보여줍니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 잘 이루어져 있으며, 문맥에 적합한 내용을 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 내용을 파악할 수 있도록 잘 구성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>0.7440823837495377</v>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기/실적 전형에서 실기 비중은 얼마인가요?</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서는 레저스포츠학과와 태권도학과를 제외한 모든 모집단위에서 실기는 수능 점수에 비해 상대적으로 낮은 비중을 차지합니다. 
+특히, 가군 실기/실적(일반학생전형)에서는 실기가 70%의 비중을 차지하며, 이는 전형요소 반영비율에서 명확하게 나타나 있습니다.
+따라서, 동의대학교 2024학년도 가군 실기/실적 전형에서 실기의 비중은 **70%**입니다.</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 세부 전공 내용을 정확하게 반영하고 있으며, 추가적인 설명도 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 전공의 내용과 관련된 정보가 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 전공의 구성에 대한 추가적인 설명도 포함되어 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>0.7532147433823857</v>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 학과 중 라이프융합학부의 세부 전공은 어떻게 구성되어 있나요?</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 단과대학 중 라이프융합학부는 세 가지 전공을 포함하고 있습니다. 
+- 스타트업창업투자학
+- 뷰티비즈니스학 
+- 라이프생활문화학
+이 세 가지 전공은 미래 융합 분야에서의 다양한 기회를 제공하며, 학생들이 삶의 질 향상과 사회 발전에 기여할 수 있는 능력을 갖추도록 돕습니다.</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 2024학년도 가군에서 실기고사에 참여해야 하는 학과에 대한 정보와 완전히 상반된 내용을 담고 있습니다. 원본 텍스트에서는 체육학과와 레저스포츠학과가 실기고사를 요구한다고 명시되어 있지만, 생성된 응답에서는 실기고사를 요구하는 학과가 없다고 잘못된 정보를 제공합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본에서 언급된 학과들은 실기고사를 요구하는 반면, 생성된 응답은 그러한 학과가 없다고 주장하고 있어 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트는 실기고사에 참여해야 하는 학과에 대한 정보를 제공하는 반면, 생성된 응답은 실기고사와 관련된 정보가 없다고 주장하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 비교적 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관계에서 비논리적인 부분이 있어 완전한 일관성을 보이지 않습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 다릅니다. 실기고사를 요구하는 학과에 대한 정보가 잘못 전달되고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 명확하게 작성되어 있어 이해하기는 쉽지만, 내용의 부정확성으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>0.4639329518354036</v>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 어떤 것들이 있나요?</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군에서는 실기고사를 요구하는 학과가 없습니다. 제공된 정보를 바탕으로, 2024학년도에는 전반적으로 대부분의 학과에서 실기/실적 부분이 서류평가에 포함되며, 개별면접은 입학사정관 2인이 평가하는 방식으로 진행됩니다.
+만약 특정 학과에서 실기고사를 요구하고 있다면, 제공된 정보에는 명시되어 있지 않습니다. 더 자세한 정보를 얻으려면 동의대학교의 공식 웹사이트 (https://ipsi. deu.ac.kr/main.do)를 방문하여 확인해 보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교의 실기/실적 위주 전형에 대한 정보를 제공하고 있지만, 원본 텍스트에서 언급된 특정 학과 목록(레저스포츠학과, 태권도학과, 디자인조형학과, 체육학과, 경기지도학과)을 포함하지 않고 있습니다. 또한, '학생부종합(평생학습자전형)'과 '학생부종합(조기취업형계약학과전형)'에 대한 정보는 원본 텍스트와 관련이 없으며, 사실과 다르게 해석될 수 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 전형의 세부 사항에 대한 정보가 추가되었지만, 원본 텍스트에서 요구하는 특정 학과 목록과는 상충합니다. 따라서 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교의 전형에 대한 정보를 제공하지만, 원본 텍스트의 핵심 질문인 '어떤 학과가 해당되는가?'에 대한 직접적인 답변을 제공하지 않기 때문에 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원본 텍스트의 주제와 관련된 정보가 부족하여 논리적인 흐름이 약간 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 전형에 대한 정보가 잘못 해석되었거나 불필요한 정보가 포함되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 전반적으로 생성된 응답은 사실성, 일관성, 관련성, 정확성에서 낮은 점수를 받았으며, 여러 차원에서 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 정보가 포함되어 있어 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 정보의 관련성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>0.5254862109664241</v>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 실기/실적 위주 전형을 지원하려고 하는데, 어떤 학과가 해당되나요?</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형인 '학생부종합(평생학습자전형)'은 신설되었습니다. 그러나 이 전형에 지원하려면 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자여야 합니다.
+또한, 2024년도에는 실기/실적 위주 전형인 '학생부종합(조기취업형계약학과전형)'이 변경되었습니다. 이 전형의 경우 서류(학생부)가 60%이고, 면접이 40%입니다.
+따라서, 실기/실적 위주 전형을 지원하려면 '학생부종합(평생학습자전형)' 또는 '학생부종합(조기취업형계약학과전형)'에 해당하는 학과를 선택해야 합니다. 하지만 '학생부종합(평생학습자전형)'은 신설되었으므로, 현재까지는 '학생부종합(조기취업형계약학과전형)'에 지원할 수 있는 학과가 주요합니다.
+만약 특정 학과의 세부 정보를 더 알고 싶다면, 제공된 데이터에서 해당 학과의 최대선발 가능인원을 확인하실 수 있습니다. 예를 들어, '경영학과 ـ 교직'은 최대 6명까지 선발할 수 있습니다.
+더 자세한 정보는 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트에서 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 라이프융합학부의 전공을 정확하게 나열하고 있으며, 전공의 수와 이름이 일치합니다. 그러나 "2024년도"라는 언급은 원본 텍스트에 포함되어 있지 않아 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 잘 반영하고 있으며, 전공 목록이 일치합니다. 다만, "미래융합대학"이라는 표현이 원본 텍스트에 없기 때문에 약간의 일관성 부족이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 전공에 대한 질문에 적절하게 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 연결되어 있으며, 전공에 대한 정보가 명확하게 전달됩니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 전공의 이름과 수는 정확하지만, "2024년도"와 "미래융합대학"이라는 추가 정보는 원본 텍스트에 없으므로 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 생성된 응답은 높은 품질을 보이며, 사실성, 일관성, 관련성, 정확성에서 약간의 부족함이 있지만 여전히 좋은 평가를 받을 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, 추가된 정보가 원본과 일치하지 않아 약간의 부적절성이 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>0.7641712206535048</v>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>동의대의 라이프융합학부에서는 어떤 전공을 제공하나요?</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>2024년도 동의대학교 미래융합대학 라이프융합학부에서는 스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학 등 세 가지 전공을 제공하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 특수목적고등학교 출신 학생이 일반학생전형으로 지원할 수 있다는 사실을 정확하게 반영하고 있습니다. 그러나 마이스터고에 대한 언급이 포함되어 있어 다소 혼란을 줄 수 있습니다. 마이스터고는 농어촌학생전형에서 제외된다는 점이 명확히 언급되지 않았습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 특수목적고등학교 학생의 지원 가능성을 언급하고 있지만, 마이스터고에 대한 정보가 포함되어 있어 원본 텍스트와의 일관성이 떨어집니다. 원본 텍스트는 농어촌학생전형에 대한 제한을 명확히 하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문의 주제와 관련이 깊으며, 특수목적고등학교 학생의 지원 가능성에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 고교 유형별 지원 자격을 명확히 설명하고 있습니다. 그러나 마이스터고에 대한 언급이 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 대체로 정확하지만, 마이스터고에 대한 언급이 원본 텍스트의 맥락과 다소 어긋나 있습니다. 농어촌학생전형에 대한 제한이 명확히 설명되지 않았습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받았습니다. 그러나 일부 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 마이스터고에 대한 언급이 다소 혼란을 줄 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장에서 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>0.7392275107149954</v>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 일반학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 일반학생전형에서 특수목적고등학교(예를 들어 과학고, 국제고, 외국어고, 예술고, 체육고, 마이스터고) 학생은 지원 가능합니다. 
+특히, 각 고교유형별로 다음과 같이 지원 자격이 주어집니다:
+- **과학고, 국제고, 외국어고**: 지원 가능
+- **예술고, 체육고, 마이스터고**: 지원 가능
+따라서, 특수목적고등학교 학생으로서 동의대학교 일반학생전형에 지원하는 것은 가능합니다. 자세한 내용은 해당 대학의 공식 웹사이트를 참조하시거나, 입시 관련 문의를 하시는 것이 좋습니다. 필요하다면 "https://ipsi. deu. ac. kr/main. do" 링크를 통해 동의대학교의 입시 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과에 대한 정보가 잘못되었습니다. 원문에서는 중어중국학과와 신소재공학과가 가장 많이 모집한다고 명시하고 있지만, 생성된 응답에서는 기계공학과 교직이 가장 많이 모집한다고 잘못 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문에서 언급된 학과와 모집 인원에 대한 정보가 일치하지 않으며, 이는 일관성을 크게 저해합니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 주제에서 벗어난 정보(예: 축구 관련 학과 등)가 포함되어 있어 관련성이 떨어집니다. 원문에서 요구하는 정보에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 정보를 나열하고 있지만, 주제 간의 연결이 약해 일관된 흐름이 부족합니다. 특히, 축구 관련 학과에 대한 언급은 주제와의 연관성이 떨어져 응답의 일관성을 해칩니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원문에서 제공하는 사실과 크게 다릅니다. 잘못된 정보가 포함되어 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 전반적으로 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 낮은 점수를 받았습니다. 따라서 다차원적 품질 점수도 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원문과의 의미적 일치가 부족합니다. 특히, 주제와 관련 없는 정보가 포함되어 있어 의미적으로 부적절한 부분이 있습니다.
+9. Understandability Score (1-5): 3
+   - 응답은 전반적으로 이해할 수 있지만, 주제와 관련 없는 정보가 포함되어 있어 혼란을 줄 수 있습니다. 따라서 이해 가능성 점수는 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>0.6525458640573599</v>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 어떤 학과인가요?</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 확인해보겠습니다.
+1. **축구(남)** 관련 학과:
+   - 등급별로 다양한 학과가 모집되지만, 특정 학과가 가장 많은 인원을 모집하고 있는지 명확히 파악하기 어렵습니다.
+2. **학생부교과(농어촌학생전형) 정원외 모집단위**:
+   - 이 부분에서는 여러 학과와 계열이 모집되며, 각 학과별 최대선발 가능인원을 확인해보겠습니다.
+     - 인문사회과학대학: 중어중국학과 교직 (4명), 일본학과 교직 (3명), 심리학과 신설 (3명), 아동학과 (3명)
+     - 상경대학: 금융경영학과 (5명), 재무부동산학과 (3명), 무역학과 교직 (6명)
+     - 공과대학: 기계공학과 교직 (5명), 자동차공학과 (3명), 조선해양공학과 (4명), 신소재공학과 (4명), 고분자나노공학과 (3명), 토목공학과 (4명), 바이오의약공학과 (4명), 인간공학과 (3명)
+     - ICT융합공과대학: 컴퓨터공학과 교직 (3명), 인공지능학과 (4명), 디지털콘텐츠학과 (1명), 게임공학과 (3명), 영화학과 (1명)
+     - 의료·보건·생활대학: 임상병리학과, 치위생학과, 방사선학과, 의료경영학과 보건의료정보관리교육인증 (1명), 식품영양학과 교직
+     - 공과대학: 기계공학과 교직 (5명) 등이 가장 많은 인원을 모집하고 있습니다.
+따라서 2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과는 **기계공학과 교직**으로 보입니다. 이 외에도 무역학과 교직, 조선해양공학과 등이 많은 인원을 모집하고 있습니다.
+만약 더 자세한 정보가 필요하시다면, 해당 대학의 공식 웹사이트를 참조하거나 문의하시는 것이 좋습니다. "https://ipsi. deu. ac. kr/main. do" 링크를 통해 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 특수목적고등학교 출신자가 동의대 학생부교과 농어촌학생전형으로 지원할 수 없다는 사실을 잘못 전달하고 있습니다. 응답에서는 지원이 가능하다고 언급하고 있어, 원문과 상반된 정보를 제공합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 내용을 포함하고 있어 일관성이 없습니다. 원문에서는 지원이 불가능하다고 명시하고 있지만, 응답에서는 지원이 가능하다고 주장하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 응답은 동국대학교에 대한 정보를 포함하고 있지만, 원문에서 다루고 있는 동의대와의 관련성이 부족합니다. 주제와 관련된 정보가 부족하여 적절한 관련성을 갖추지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 약간의 이해를 방해할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답은 여러 정보를 포함하고 있지만, 원문과의 연결이 부족하여 일관된 흐름을 유지하지 못하고 있습니다. 원문과의 관계가 명확하지 않아 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 크게 다릅니다. 지원 자격에 대한 잘못된 정보를 제공하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 응답은 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 매우 낮은 점수를 받고 있습니다. 전반적으로 원문과의 관계가 부족하고 잘못된 정보를 포함하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 응답은 일부 의미적으로 적절한 부분이 있지만, 전체적으로 원문과의 의미적 일치가 부족합니다. 잘못된 정보가 포함되어 있어 의미적으로 부적절한 부분이 많습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 응답은 전반적으로 이해할 수 있지만, 원문과의 관계가 명확하지 않아 혼란을 줄 수 있습니다. 일부 문장은 명확하게 전달되지 않아 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>0.5751296952754151</v>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 학생부교과 농어촌학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>你是特殊高中学生，可以考虑通过동국대학교的学生部课程-农村学生选拔型申请。根据提供的信息，在“고교유형별 지원자격”部分中，对于“특수목적고등학교”的分类下，“농어촌 학생”是支持的。
+因此，你可以尝试通过东国大学的学生部课程-农村学生选拔型进行申请。不过具体细节和要求可能还需要查看东国大学官方网站上的最新信息或直接咨询学校招生办公室以获取准确指导。如果需要更多信息，可以访问“https://ipsi. deu. ac. kr/main. do”来获取最新的招生政策和指南。
+번역된 답변은 다음과 같습니다:
+특수목적고등학교 학생으로서 동국대학교의 학생부교과 농어촌학생전형으로 지원이 가능합니다. "고교유형별 지원자격" 부분에서 특수목적고등학교에 속한 농어촌 학생은 지원이 가능하다는 내용을 확인할 수 있습니다.
+따라서, 동국대학교의 학생부교과 농어촌학생전형으로 지원이 가능하지만, 구체적인 자세한 사항이나 요구사항은 동국대학교의 공식 웹사이트를 참조하거나 직접 입학처에 문의하여 확인하는 것이 좋습니다. 더 필요한 정보가 있다면 "https://ipsi.deu.ac.kr/main.do"로 최신 합격 정책과 안내서를 얻을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 구체적인 정보를 제공하고 있으나, 원본 텍스트에서는 해당 정보가 포함되어 있지 않다고 명시하고 있습니다. 따라서 생성된 응답은 사실과 일치하지 않으며, 여러 가지 부정확한 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 합격자 평균 성적에 대한 정보가 없다고 명시하고 있지만, 생성된 응답은 구체적인 성적 정보를 제시하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트는 정보가 없음을 알리고 있지만, 생성된 응답은 구체적인 성적 정보를 제공하여 주제와 관련이 없습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관계에서 비논리적인 점이 있어 완전한 일관성을 보이지 않습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 원본 텍스트는 성적 정보가 없다고 명시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받습니다. 원본 텍스트와의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 정보를 제공합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 부정확성으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>0.623254620795303</v>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 합격자 평균 성적은 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 330.11
+- 영어 등급의 평균: 3.30
+- 수능 4개 영역 등급의 평균: 4.12
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균: 450.71
+이러한 정보를 바탕으로, 2024학년도 소프트웨어공학부의 합격자들은 비교적 높은 성적을 보여주고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 없다는 사실을 정확하게 반영하고 있습니다. 그러나 "다른 전공에 대한 정보를 원하신다면 관련 정보를 요청해주세요"라는 부분은 원본 텍스트에 명시된 내용과는 관련이 없으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부분 일치하지만, "다른 전공에 대한 정보를 원하신다면 관련 정보를 요청해주세요"라는 문장은 원본 텍스트의 내용과 일치하지 않으며, 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 다른 전공에 대한 정보 요청 부분은 원본 텍스트의 핵심 주제와는 다소 벗어나 있습니다. 그러나 전반적으로 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, "deu"와 "ac" 사이의 공백이 불필요하게 삽입되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 논리적인 흐름을 가지고 있으며, 원본 텍스트의 내용을 잘 반영하고 있습니다. 그러나 추가된 정보 요청 부분이 흐름을 약간 방해할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있지만, 다른 전공에 대한 정보 요청 부분은 정확한 정보가 아닙니다. 따라서 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 품질을 보이고 있지만, 일관성과 정확성에서 약간의 부족함이 있습니다. 전반적으로는 양호한 수준입니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, 다른 전공에 대한 정보 요청 부분은 다소 부적절하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장이 다소 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>0.7006002353236084</v>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 2024학년도 소프트웨어공학부에 대한 데이터가 없습니다. 다른 전공에 대한 정보를 원하신다면 관련 정보를 요청해주세요. 필요한 경우, "https://ipsi. deu. ac. kr/main. do" 링크를 참조하여 자세한 내용을 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 정보를 포함하고 있지만, 최초 합격자 등록 일정과 충원 합격자 등록 일정에 대한 세부사항이 추가되어 있어 원본 텍스트와는 다소 차이가 있습니다. 원본 텍스트에는 이러한 세부사항이 포함되어 있지 않으므로, 일부 사실이 왜곡되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 포함하고 있지만, 추가된 정보로 인해 일관성이 떨어집니다. 특히, 최초 합격자 등록 일정과 관련된 내용이 원본에 없기 때문에 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 정보를 제공하고 있으며, 관련된 세부사항도 포함되어 있어 대체로 관련성이 높습니다. 그러나 원본 텍스트와의 차이로 인해 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 문장 구조와 표현이 매끄럽고 자연스럽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 차이로 인해 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트에 없는 추가 정보가 포함되어 있어 정확성이 떨어집니다. 특히, 최초 합격자 등록 일정과 관련된 정보는 원본에 명시되어 있지 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 보이지만, 사실성과 일관성에서 다소 부족함이 있어 완전한 점수를 주기 어렵습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 대체로 적합하지만, 추가된 정보로 인해 일부 의미가 왜곡될 수 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있어, 독자가 내용을 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>0.8142122725900837</v>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+1. **최초 합격자 발표 및 등록**:
+   - **일정**: 2024년 2월 2일(금) 14:00
+   - **비고**: 
+     - *발표*: 홈페이지에서 개별 조회
+     - *고지서 교부*: 홈페이지에서 출력 또는 입학관리팀에서 수령
+     - *등록장소*: 학교 지정은행(등록금 고지서에 기재)
+2. **최초 합격자 등록**:
+   - **일정**: 2024년 2월 7일(수) ~ 13일(화) (은행마감시간 내)
+   - **비고**: 
+     - *발표*: 홈페이지에서 개별 조회
+     - *고지서 교부*: 홈페이지에서 출력 또는 입학관리팀에서 수령
+     - *등록장소*: 학교 지정은행(등록금 고지서에 기재)
+3. **충원 합격자 발표 및 등록**:
+   - **1차 충원 합격자 발표**: 2024년 2월 14일(수) 09:00
+     - **비고**: 
+       - *발표*: 홈페이지에서 개별 조회
+       - *고지서 교부*: 홈페이지에서 출력 또는 입학관리팀에서 수령
+       - *등록장소*: 학교 지정은행(등록금 고지서에 기재)
+   - **1차 충원 합격자 등록**: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - **비고**:
+       - *발표*: 홈페이지에서 개별 조회
+       - *고지서 교부*: 홈페이지에서 출력 또는 입학관리팀에서 수령
+       - *등록장소*: 학교 지정은행(등록금 고지서에 기재)
+   - **2차 충원 합격자 발표**: 2024년 2월 15일(목) 09:00
+     - **비고**:
+       - *발표*: 홈페이지에서 개별 조회
+       - *고지서 교부*: 홈페이지에서 출력 또는 입학관리팀에서 수령
+       - *등록장소*: 학교 지정은행(등록금 고지서에 기재)
+   - **2차 충원 합격자 등록**: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - **비고**:
+       - *발표*: 홈페이지에서 개별 조회
+       - *고지서 교부*: 홈페이지에서 출력 또는 입학관리팀에서 수령
+       - *등록장소*: 학교 지정은행(등록금 고지서에 기재)
+   - **3차 이후 충원 합격자 발표**: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - **비고**:
+       - *발표*: 홈페이지에서 개별 조회
+       - *고지서 교부*: 홈페이지에서 출력 또는 입학관리팀에서 수령
+       - *등록장소*: 학교 지정은행(등록금 고지서에 기재)
+   - **3차 이후 충원 합격자 등록**: 개별 전화 통보 시 안내
+이상의 일정을 참고하시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 면접 일정에 대한 구체적인 정보를 제공하지 않고, 일반적인 조언을 포함하고 있습니다. 원본 텍스트에서 명시된 면접 일정(2024. 01. 20.)이 누락되어 있어 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않으며, 면접 일정에 대한 구체적인 언급이 없고, 일반적인 정보만 제공하고 있습니다. 이는 원본 텍스트와의 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 면접 일정에 대한 질문에 대한 답변을 제공하려고 하지만, 원본 텍스트의 구체적인 정보를 반영하지 않기 때문에 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 적절성 때문에 점수가 다소 낮아졌습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 흐름을 가지고 있지만, 원본 텍스트의 핵심 정보를 반영하지 않기 때문에 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정확한 정보를 제공하지 않으며, 면접 일정에 대한 구체적인 사실이 누락되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 품질 차원에서 낮은 점수를 받았으며, 특히 사실성과 일관성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 조언을 제공하지만, 원본 텍스트의 맥락과는 맞지 않기 때문에 점수가 낮습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 원본 텍스트와의 관련성이 부족하여 정보의 명확성이 떨어집니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>0.3896300108427551</v>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>면접고사는 언제 보러 가나요</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 면접일정은 대체로 입학사정관이 결정합니다. 정확한 날짜와 시간은 나중에 공지될 것입니다. 따라서 최신 정보를 얻기 위해서는 학교의 공식 웹사이트(https://ipsi. deu. ac. kr/main. do) 또는 관련 부서에서 확인하시거나, 직접 학교로 연락을 주시는 것이 좋습니다. 면접일정이 발표되는 시점에 맞춰 준비하시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 한의예과의 최저학력 기준이 없다는 사실을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가적인 정보 제공이 원본의 내용을 해치지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 한의예과의 최저학력 기준에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 원본 텍스트와의 연결이 명확합니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>0.6266595826679466</v>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>한의예과 최저학력기준</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 한의예과의 최저학력 기준에 대한 내용은 없습니다. 만약 한의예과의 최저학력 기준을 알고 싶다면, https://ipsi.deu.ac.kr/main.do 웹사이트를 방문하여 자세한 정보를 확인해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5):
+   - 점수: 4
+   - 설명: 생성된 응답은 동의대학교의 수능 최저학력 기준이 없다는 사실을 정확하게 반영하고 있으며, 2024학년도 정시에서 대부분의 전형에서 수능 최저학력 기준이 없다는 추가 정보를 제공하고 있습니다. 그러나 "수능 위주" 전형에 대한 구체적인 정보는 원문에 명시되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5):
+   - 점수: 3
+   - 설명: 생성된 응답은 원문과 일치하는 부분이 있지만, "수능 위주" 전형에 대한 추가 정보는 원문에 포함되어 있지 않아 일관성이 떨어집니다. 따라서 일부 일관성이 있지만, 전반적으로는 일관성이 부족합니다.
+3. Relevance Score (1-5):
+   - 점수: 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 직접적으로 관련이 있으며, 수능 최저학력 기준에 대한 정보를 잘 전달하고 있습니다.
+4. Fluency Score (1-5):
+   - 점수: 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5):
+   - 점수: 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 추가 정보가 원문과 일치하지 않아 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5):
+   - 점수: 4
+   - 설명: 생성된 응답은 동의대학교의 수능 최저학력 기준에 대한 정확한 정보를 제공하고 있지만, "수능 위주" 전형에 대한 구체적인 내용은 원문에 명시되어 있지 않아 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5):
+   - 점수: 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 품질을 보여주지만, 일부 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5):
+   - 점수: 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 연결되어 있으며, 주제에 적합한 정보를 제공합니다. 그러나 추가 정보가 원문과 일치하지 않아 약간의 부적합성이 있습니다.
+9. Understandability Score (1-5):
+   - 점수: 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다. 그러나 일부 표현이 다소 어색할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>0.6260820857416902</v>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>정시에서 수능최저학력기준이 있나요?</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>2024학년도 정시에서는 대부분의 전형에서 수능 최저학력 기준이 없습니다. 
+특히, "수능 위주" 전형인 &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군의 경우 수능 최저학력 기준이 없음을 확인할 수 있습니다.
+만약 특정 전형에 대한 자세한 정보가 필요하다면, 제공된 데이터를 참고하거나 공식 웹사이트를 방문하여 확인해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 1차 충원합격자 발표일인 2024년 2월 14일을 누락하고, 2차 발표일인 2024년 2월 15일에 대한 정보만을 강조하고 있습니다. 또한, "이후에도 계속해서 발표될 예정입니다"라는 문구는 원본 텍스트의 구체적인 일정과 일치하지 않으므로 정확성이 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 포함하고 있지만, 1차 발표일을 누락하고 3차 이후 발표에 대한 구체적인 내용을 제공하지 않아 일관성이 부족합니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 충원합격자 발표 일정에 대한 질문에 적절하게 답변하고 있으며, 관련된 정보를 제공하고 있습니다. 그러나 원본 텍스트의 모든 세부 사항을 포함하지 않기 때문에 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다. 따라서 유창성 점수는 최고 점수입니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 발표 일정에 대한 흐름이 자연스럽습니다. 그러나 원본 텍스트의 모든 세부 사항을 포함하지 않아 약간의 일관성 부족이 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 1차 발표일을 누락하고 있어 정확성이 떨어집니다. 따라서 중간 정도의 정확성 점수를 부여합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 일부 강점이 있지만, 정보의 누락과 일관성 부족으로 인해 전반적인 품질이 중간 정도로 평가됩니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 세부 사항이 누락되어 있어 완전한 적합성은 아닙니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다. 따라서 이해 가능성 점수는 최고 점수입니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>0.7841215915069467</v>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>충원합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일(목)부터 충원 합격자 발표가 진행됩니다. 첫 번째 충원 합격자는 2024년 2월 15일(목) 오전 9시에 발표되며, 이후에도 계속해서 발표될 예정입니다. 자세한 일정은 입학 안내 홈페이지에서 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 원본 텍스트에서는 1차 충원합격자 발표가 2024년 2월 14일에 이루어진다고 명시되어 있지만, 생성된 응답에서는 1차 추가합격자 발표가 2024년 2월 7일부터 13일 사이에 이루어진다고 잘못 기재되어 있습니다. 이로 인해 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 발표 일정이 서로 다르며, 원본의 내용을 왜곡하고 있습니다. 따라서 일관성 점수는 매우 낮습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 추가합격자 발표 일정에 대한 정보를 제공하고 있지만, 원본 텍스트의 충원합격자 발표 일정과는 관련이 적습니다. 주제는 다르지만, 발표 일정에 대한 정보는 포함되어 있어 중간 정도의 관련성을 가집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 표현이 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일정에 대한 정보를 제공하지만, 원본 텍스트와의 연결이 부족하여 논리적인 흐름이 약합니다. 전체적으로는 이해할 수 있지만, 일관된 구조가 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성 모두 낮기 때문에 전반적인 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다. 따라서 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있지만, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다. 
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>0.5970354934741863</v>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>추가합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 추가합격자 발표 일정은 다음과 같습니다:
+- **1차 추가합격자 발표**: 2024년 2월 7일 (수) ~ 2024년 2월 13일 (화)
+- **2차 추가합격자 발표**: 2024년 2월 14일 (수)
+이후에도 추가 합격자가 있을 경우, 그에 따른 일정은 2024년 2월 15일 (목)부터 진행될 것으로 보입니다. 
+따라서, 최종적으로 추가합격자 발표는 2024년 2월 20일까지 이루어질 수 있습니다.
+추가 합격자 발표 일정에 대한 자세한 내용은 입학안내 홈페이지를 참조하시거나, https://ipsi. deu. ac. kr/main. do 를 방문하여 확인해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 추가 모집 여부에 대한 명확한 답변을 제공하지 않으며, 원본 텍스트의 내용을 완전히 반영하지 못하고 있습니다. 원본 텍스트는 추가 모집이 이루어질 것이라는 정보를 포함하고 있지만, 생성된 응답은 이를 명확히 언급하지 않고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부분 일치하지만, 추가 모집이 이루어질 것이라는 정보가 누락되어 있어 일관성이 떨어집니다. 원본 텍스트의 내용을 완전히 반영하지 못하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 추가 모집 여부에 대한 질문에 대한 답변을 제공하려고 하지만, 원본 텍스트의 핵심 내용을 직접적으로 다루지 않고 있습니다. 그러나 관련된 웹사이트를 언급하여 추가 정보를 제공하려는 점에서 어느 정도 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 원본 텍스트와의 연결이 부족하여 약간의 매끄러움이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트의 내용을 충분히 반영하지 않아 일관된 주제를 유지하지 못하고 있습니다. 추가 모집에 대한 정보가 부족하여 응답의 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확히 반영하지 않으며, 추가 모집이 이루어질 것이라는 정보를 누락하고 있습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본 텍스트의 핵심 내용을 충분히 반영하지 못하고 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 원본 텍스트의 맥락을 충분히 반영하지 못하고 있습니다. 추가 모집에 대한 정보가 부족하여 의미의 적절성이 다소 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 원본 텍스트와의 연결이 부족하여 질문에 대한 명확한 답변을 제공하지 못하고 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>0.5031136686538784</v>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>추가모집을 하나요?</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 특정 단과대학이나 모집단위의 추가 모집 여부에 대한 명확한 답변을 드릴 수 없습니다. 추가 모집 여부와 관련된 자세한 내용은 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조하시거나, 대학 입학처에 직접 문의해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3  
+   - 생성된 응답은 평생학습자전형에 대한 정보를 제공하지만, 원본 텍스트의 세부 사항(모집인원, 전형요소 반영 비율, 제출기간 및 장소 등)을 누락하고 있습니다. 따라서 일부 사실이 정확하지 않거나 누락되어 있습니다.
+2. Consistency Score (1-5): 3  
+   - 생성된 응답은 원본 텍스트의 일부 내용을 반영하고 있지만, 전형의 구체적인 세부 사항과는 일치하지 않는 부분이 있습니다. 예를 들어, 면접 평가에 대한 설명이 추가되었으나 원본 텍스트에는 면접에 대한 구체적인 내용이 없습니다.
+3. Relevance Score (1-5): 4  
+   - 생성된 응답은 평생학습자전형에 대한 정보를 제공하고 있으며, 주제와 관련이 있습니다. 그러나 원본 텍스트의 주요 세부 사항을 다루지 않기 때문에 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 5  
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되었습니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 4  
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 연결성이 부족하여 완전한 일관성은 아닙니다.
+6. Accuracy Score (1-5): 3  
+   - 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 중요한 세부 사항이 누락되어 있어 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3  
+   - 전반적으로 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 그러나 사실성과 일관성에서 부족함이 있어 점수가 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4  
+   - 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으나, 원본 텍스트의 세부 사항을 충분히 반영하지 못해 완전한 적절성은 아닙니다.
+9. Understandability Score (1-5): 5  
+   - 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되었습니다. 정보가 잘 전달되어 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>0.6522366442619402</v>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대해 알려줘.</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 성인 학습자를 대상으로 한 입학 전형입니다. 이 전형에서는 서류 평가와 면접 평가를 통해 지원자의 학업역량, 공동체역량 및 전공적합성을 종합적으로 평가합니다.
+**서류 평가:**
+- **고교 졸업(예정)자:** 고교 학교생활기록부 1부 (온라인 제공 동의자는 제출할 필요 없음)
+- **검정고시 출신자:** 검정고시 합격증서 사본 또는 합격증명서, 검정고시 성적증명서, 학교생활기록부 대체 서류 (제출여부 선택 가능)
+- **외국고교 졸업(예정)자:** 공증받은 외국고교 졸업(예정)증명서 1부, 공증받은 외국고교 성적증명서 1부, 학교생활기록부 대체 서류 (제출여부 선택 가능)
+**면접 평가:**
+- 개별 면접으로 진행되며, 지원동기 및 학업계획, 학업역량, 전공적합성에 대한 질문이 제시됩니다.
+**평가 기준:**
+- **학업역량:** 문제해결능력, 학업 역량, 전공 적합성 관련 공통문항 발표 및 질의응답
+- **전공적합성:** 지원 전공(계열)에 대한 관심과 이해, 진로 탐색 활동을 통한 성장과정과 결과
+**부정적 사례:**
+- 서류 작성 과정에서 학교생활기록부 내용의 과장 기재
+- 동일 내용의 의도적인 반복 기재
+- 학급/단체 단위의 내용 기재
+이러한 절차와 평가 기준을 통해 성인 학습자의 학업역량과 전공적합성을 종합적으로 판단합니다.</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 평생학습자전형의 지원자격에 대한 정보가 아닌, 산업체 적용 범위와 재직기간 산정에 대한 내용을 포함하고 있습니다. 이는 원본 텍스트와 전혀 관련이 없는 정보로, 사실적으로 부정확합니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있으며, 원본의 지원자격에 대한 정보와는 일치하지 않습니다. 따라서 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 평생학습자전형의 지원자격에 대한 질문에 대한 답변으로 적절하지 않습니다. 매우 낮은 관련성을 보입니다.
+4. Fluency Score (1-5): 4
+   - 문법적으로는 비교적 잘 작성되었으나, 내용이 원본과 관련이 없기 때문에 전체적인 맥락에서의 유창성은 떨어집니다. 그러나 문장 구조는 명확하고 읽기 쉽습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 없기 때문에 전체적인 일관성은 떨어집니다. 주제와의 연관성이 없으므로 일관성 점수는 중간 정도입니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 모든 평가 기준에서 매우 낮은 점수를 받았기 때문에, 전체적인 품질도 매우 낮습니다. 원본 텍스트와의 관련성이 전혀 없기 때문입니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 주제와 관련이 없는 내용을 담고 있습니다. 따라서 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 문장은 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용이 원본과 관련이 없기 때문에 전체적인 이해도는 떨어집니다. 그러나 문장 자체는 잘 구성되어 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>0.6541786163464779</v>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>평생학습자전형 지원자격은?</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 평생학습자전형 지원자격은 다음과 같습니다:
+1. 산업체 적용 범위:
+   - 국가·지방자치단체 및 공공단체 (소속 직원의 경우)
+   - 근로기준법 제11조에 의거 상시근로자 5인(사업주 포함) 이상 사업체
+   - 4대 보험 중 1개 이상 가입 사업체 (창업·자영업자 포함)
+2. 재직기간 산정:
+   - 2024년 3월 1일 기준으로 총 재직기간이 3년 이상(예정)이어야 함
+   - 재직기간은 제출한 지원자격 증빙서류 상으로 증명되는 기간만 산정
+   - 2개 이상의 산업체에 재직한 경우 총 재직기간은 합산하여 산정하되, 중복되는 기간은 이중으로 합산하지 않음
+   - 군 의무복무 경력도 재직기간으로 인정함
+이러한 자격을 갖춘 지원자는 평생학습자전형에 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5):
+   - 점수: 1
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 정보를 명확히 제공하지 않고 있으며, 오히려 실기고사와 관련된 내용이 없다고 주장하고 있습니다. 이는 원본 텍스트의 사실과 상충합니다.
+2. Consistency Score (1-5):
+   - 점수: 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 실기고사에 대한 정보를 부정하고 다른 전형에 대한 정보만 언급하고 있습니다. 이는 일관성이 결여된 것입니다.
+3. Relevance Score (1-5):
+   - 점수: 2
+   - 설명: 생성된 응답은 실기고사에 대한 질문에 대한 답변으로는 적절하지 않으며, 관련성이 낮습니다. 실기고사에 대한 정보가 아닌 다른 전형에 대한 정보로 대체되고 있습니다.
+4. Fluency Score (1-5):
+   - 점수: 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 오류는 없습니다. 그러나 내용의 부적절함으로 인해 전체적인 흐름이 방해받습니다.
+5. Coherence Score (1-5):
+   - 점수: 2
+   - 설명: 생성된 응답은 실기고사와 관련된 질문에 대한 답변으로서 논리적인 흐름이 부족합니다. 실기고사에 대한 정보가 아닌 다른 주제로 전환되면서 일관성이 떨어집니다.
+6. Accuracy Score (1-5):
+   - 점수: 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 실기고사에 대한 정보를 제공하지 않고 있습니다. 이는 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5):
+   - 점수: 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받고 있습니다. 전반적으로 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5):
+   - 점수: 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않으며, 실기고사에 대한 질문에 대한 적절한 답변이 아닙니다.
+9. Understandability Score (1-5):
+   - 점수: 3
+   - 설명: 문장은 이해할 수 있지만, 주제가 일관되지 않아 혼란을 줄 수 있습니다. 실기고사에 대한 정보가 부족하여 명확한 이해를 방해합니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>0.4118595517529527</v>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서는 실기고사와 관련된 내용이 없습니다. "나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형)"의 면접평가 방법이나 제출서류 등에 대한 정보만 포함되어 있습니다. 실기고사와 관련된 자세한 내용은 "https://ipsi.deu.ac.kr/main.do"를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 정보를 제공하는 원본 텍스트와 관련된 내용을 다루지 않고 있으며, 특정 장소에 대한 언급이 없다고 주장하고 있습니다. 그러나 원본 텍스트는 대기실 및 입실시간에 대한 정보를 명확히 제공하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 원본에서 제공된 정보에 대한 부정확한 해석을 포함하고 있습니다. 원본 텍스트는 특정 정보를 제공하고 있지만, 생성된 응답은 이를 무시하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 주제와 관련이 적습니다. 원본 텍스트는 실기고사 대기실 및 입실시간에 대한 정보를 제공하고 있지만, 생성된 응답은 그와 관련된 질문을 제기하고 있습니다.
+4. Fluency Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로 일부 오류가 있으며, 문장 구조가 매끄럽지 않습니다. 특히, 중국어가 포함되어 있어 한국어 문맥에서 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 논리적인 흐름이 부족하며, 원본 텍스트와의 연결이 약합니다. 원본의 정보와 관련된 내용을 다루지 않고 있어 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 제공된 정보에 대한 정확한 해석이 부족합니다. 원본 텍스트의 내용을 잘못 이해하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 품질 차원에서 낮은 점수를 받습니다. 사실성, 일관성, 관련성, 정확성 모두에서 부족함이 드러납니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않으며, 적절한 의미 전달이 이루어지지 않고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 일부 이해할 수 있는 부분이 있지만, 전체적으로는 혼란스러운 요소가 많아 명확하게 이해하기 어렵습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 2,
+    "Fluency Score": 3,
+    "Coherence Score": 2,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>0.320955736309656</v>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 체육학과의 실기고사와 관련된 특정 장소에 대한 언급이 없습니다. 체육학과의 실기고사는 학교에서 직접组织实施体育学专业的实践考试在哪里进行？
+根据提供的信息，没有提到体育学专业实践考试的具体地点。通常这类考试会在学校内进行，请直接咨询相关学校以获取准确信息。</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 수시 충원합격자 발표에 대한 정보를 제공하지만, 전화 통보가 이루어질 수 있다고 언급한 부분은 사실과 다릅니다. 원본 텍스트에서는 3차 이후에만 개별 전화 통보가 이루어진다고 명시하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부 일치하지만, 전화 통보가 이루어질 수 있다는 내용은 원본과 모순됩니다. 따라서 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 수시 충원합격자 발표에 대한 정보를 적절히 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 약간의 어색함이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 전화 통보에 대한 모순으로 인해 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 전화 통보에 대한 잘못된 진술로 인해 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 양호하지만, 사실성과 일관성에서의 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 전화 통보에 대한 언급이 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 다만, 전화 통보에 대한 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>0.6054478942929102</v>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>수시 충원합격자 발표하면 전화 주시는건가요?</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>2024년 수시 충원 합격자 발표 후에는 홈페이지에서 개별 조회를 통해 결과를 확인할 수 있습니다. 또한, 일부 학생에게는 개별 전화 통보가 이루어질 수 있으므로, 발표일 이후에 연락을 받으실 가능성이 있습니다.
+만약 추가적인 정보나 자세한 안내가 필요하시다면, "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 수시 모집 결과에 대한 구체적인 정보가 제공되지 않았다는 사실을 정확하게 반영하고 있습니다. 그러나 "모집인원만 확인할 수 있다"는 부분은 원문에 명시되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원문과 일관되게 수시 모집 결과에 대한 정보가 없음을 언급하고 있습니다. 다만, 모집인원에 대한 언급은 원문에 포함되어 있지 않아 약간의 불일치가 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 다루고 있는 주제와 직접적으로 관련이 있으며, 수시 모집 결과에 대한 정보를 요청하는 내용이 포함되어 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있어 읽기 쉽고 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달되고 있습니다.
+6. Accuracy Score (1-5): 4
+   - 응답은 전반적으로 정확하지만, 모집인원에 대한 언급이 원문에 없기 때문에 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 응답은 높은 품질을 보이지만, 일부 세부 사항에서 정확성과 일관성에 약간의 문제가 있어 4점으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원문과 의미적으로 잘 맞지만, 모집인원에 대한 언급이 원문에 없기 때문에 약간의 부적절성이 있습니다.
+9. Understandability Score (1-5): 5
+   - 응답은 명확하고 이해하기 쉬워서 높은 점수를 부여합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>0.8552225175442829</v>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과 수시모집 결과는?</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과의 수시 모집에 대한 구체적인 결과 정보가 제공되지 않았습니다. 현재 주어진 정보에서는 해당 학과의 모집인원만 확인할 수 있습니다.
+만약 2023학년도 경찰행정학과의 수시모집 결과를 알고 싶다면, "https://ipsi.deu.ac.kr/main.do" 웹사이트에서 최신 정보를 확인해 보시는 것이 가장 정확한 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 정시모집 지원자가 수능에 응시하지 않으면 지원할 수 없다는 원문과 상반된 내용을 포함하고 있습니다. 나군 학생부종합전형에서는 수능 응시 여부와 관계없이 지원이 가능하다고 주장하지만, 이는 원문과 모순됩니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일관성이 없습니다. 원문은 수능에 응시하지 않으면 지원할 수 없다고 명시하고 있지만, 생성된 응답은 수능 응시 여부와 관계없이 지원이 가능하다고 주장하여 서로 충돌하는 정보를 제공합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 원문에서 제시한 조건과는 다른 전형에 대한 정보를 포함하고 있습니다. 따라서 관련성은 높지만, 원문과의 직접적인 연관성은 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 전형에 대한 정보를 제공하지만, 원문과의 연결이 부족하여 일관된 흐름이 떨어집니다. 정보가 분산되어 있어 논리적 연결이 약합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제시한 사실과 상충하는 내용을 포함하고 있어 정확성이 낮습니다. 수능 응시 여부에 따른 지원 가능성에 대한 정보가 잘못 전달되고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원문과의 일관성이 부족하고, 사실성 및 정확성에서도 문제가 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 의미적으로 원문과 상충하는 부분이 있어 적절성에서 다소 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C350" t="n">
+        <v>0.455873417712205</v>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>정시에 수능 응시하지 않아도 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>2024년 나군 학생부종합전형에서는 수능 응시 여부와 관계없이 지원이 가능합니다. 그러나 일부 전형에서는 수능 점수를 반영하거나, 수능을 응시하지 않은 경우 다른 평가 기준이 적용될 수 있습니다.
+예를 들어:
+- **일반학생전형**: 수능 100%로 반영되며, 수능 응시 여부에 따라 지원 자격이 달라질 수 있습니다.
+- **조기취업형계약학과전형**: 서류평가와 면접을 통해 평가되며, 수능 점수는 반영되지 않을 가능성이 높습니다.
+따라서 정시에 수능 응시하지 않아도 지원이 가능한 전형들이 있습니다. 하지만 각 전형별로 다르므로, 구체적인 지원 자격과 평가 기준을 확인하시기 바랍니다. 더 자세한 정보를 얻으려면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)를 방문해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 고등학교 졸업 후 10년이 지났더라도 정시 지원이 가능하다는 원문과 상반된 내용을 담고 있습니다. 원문에서는 모든 고등학교 졸업생이 정시 지원이 가능하다고 명시하고 있지만, 생성된 응답은 3년 이내에 재직 경력을 요구한다고 잘못된 정보를 제공합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 완전히 모순되는 내용을 포함하고 있습니다. 원문은 졸업 시기와 관계없이 지원이 가능하다고 하였으나, 생성된 응답은 10년이 지났다면 지원할 수 없다고 주장합니다. 이로 인해 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문 질문에 대한 답변을 시도하고 있으나, 잘못된 정보로 인해 관련성이 떨어집니다. 원문에서 언급된 정시 지원 가능성에 대한 정보는 포함되어 있지만, 잘못된 조건을 제시하여 혼란을 초래합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에는 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있으나, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 추가적인 전형에 대한 언급은 있지만, 주제와의 연결이 약합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 완전히 다릅니다. 고등학교 졸업 후 10년이 지나도 정시 지원이 가능하다는 사실을 무시하고 잘못된 조건을 제시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 원문과의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있으나, 잘못된 정보로 인해 의미적으로 부적절합니다. 원문의 맥락을 왜곡하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 내용의 정확성 문제로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>0.6168455121591014</v>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>고등학교 졸업한지 10년이 지났는데 정시 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>2024 나군의 경우, 정시 모집에 지원하려면 고등학교를 졸업한 후 3년 이내에 재직 경력을 충족해야 합니다. 따라서 고등학교를 졸업한지 10년이 지났다면 정시로 지원할 수 없습니다.
+추가적으로, 평생학습자전형이나 성인학습자전형을 통해 지원 가능합니다. 이 전형에서는 재직 경력과 같은 요소들을 고려하므로, 귀하의 경우 해당 전형에 지원해 보시는 것을 추천드립니다. 자세한 내용은 https://ipsi. deu. ac. kr/main. do를 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 동의대학교의 2024학년도 정시 일정에 대한 주요 정보를 포함하고 있으며, 대부분의 세부 사항이 정확하게 반영되어 있습니다. 그러나 "예술디자인체육대학"이라는 특정 학부 명칭이 원본 텍스트에 명시되어 있지 않으며, "음악학과 교직"에 대한 언급도 원본에 없으므로 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 구조를 따르지만, 일부 세부 사항에서 일관성이 부족합니다. 예를 들어, "음악학과 교직"이라는 특정 학과의 언급은 원본에 없으며, 이는 일관성을 저해합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 정시 모집 일정에 대한 정보를 직접적으로 다루고 있습니다. 모든 주요 포인트가 잘 반영되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 세부 사항에서 일관성이 떨어져 전체적인 일관성에 영향을 미칠 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 대부분의 사실을 정확하게 반영하고 있지만, 특정 학부와 관련된 정보에서 약간의 부정확성이 있습니다. 이로 인해 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받습니다. 그러나 일부 세부 사항에서의 부정확성과 일관성 부족이 점수를 낮추는 요소입니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 특정 학부 명칭의 사용이 적절하지 않을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C352" t="n">
+        <v>0.6708992233503523</v>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>동의대학교 예술디자인체육대학의 정시 모집 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**: 2024년 1월 2일 (화) 입학안내 홈페이지에서 공고됩니다.
+2. **원서접수(인터넷)**: 2024년 1월 3일 (수)부터 6일 (토)까지 접수되며, 마감 시간은 각 모집단위별로 다릅니다. 예를 들어, 음악학과 교직의 경우 18시까지입니다.
+3. **서류 제출**: 2024년 1월 3일 (수)부터 12일 (금)까지 접수되며, 마감 시간은 17시까지입니다. 서류 제출 대상자는 전형별 세부 안내를 참조해야 합니다.
+4. **실기고사**:
+   - 레저스포츠학과와 태권도학과는 2024년 1월 16일 (화)에 실시됩니다.
+   - 디자인조형학과, 체육학과는 2024년 1월 17일 (수)에 실시됩니다.
+5. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: 2024년 2월 2일 (금) 14:00
+   - 최초 합격자 등록: 2024년 2월 7일 (수)부터 13일 (화)까지
+   - 충원 합격자 발표 및 등록: 1차는 14일 (수), 2차는 15일 (목), 3차 이후는 15일 (목) 19시부터 20일 (화) 18시까지 개별 전화 통보로 이루어집니다.
+이 일정은 예시이며, 실제 일정은 공고된 내용을 따르게 됩니다. 자세한 정보는 [입학안내 홈페이지](http://ipsi. deu. ac. kr)를 참조하시거나 문의해주세요.</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명된 일정은 대체로 정확하지만, "예술디자인체육대학"이라는 명칭이 원문에 명시되어 있지 않으며, "음악학과 교직"에 대한 언급도 원문에 포함되어 있지 않아 일부 정보가 추가되거나 변형되었습니다.
+2. Consistency Score (1-5): 3
+   - 원문과 생성된 응답 간에 일부 일치하는 부분이 있지만, 특정 학과와 관련된 세부사항이 다르게 표현되어 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 다루고 있는 정시 모집 일정과 관련된 모든 주요 사항을 포함하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 읽기 쉽지만 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있어 이해하기 쉽습니다.
+6. Accuracy Score (1-5): 4
+   - 대부분의 정보가 정확하지만, 특정 세부사항에서 원문과의 차이가 있어 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 높은 품질을 보이지만, 일부 세부사항에서의 차이로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 의미적으로 적절하지만, 특정 학과에 대한 언급이 원문과 다르게 표현되어 있어 약간의 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 응답은 전반적으로 명확하고 이해하기 쉬우나, 일부 세부사항에서 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>0.8502061062171667</v>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>동의대학교 예술디자인체육대학의 정시 모집 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**: 2024년 1월 2일 (화) 입학안내 홈페이지에서 공고됩니다.
+2. **원서접수(인터넷)**: 2024년 1월 3일 (수)부터 6일 (토)까지 접수되며, 마감 시간은 각 모집단위별로 다릅니다. 예를 들어, 음악학과 교직의 경우 18시까지입니다.
+3. **서류 제출**: 2024년 1월 3일 (수)부터 12일 (금)까지 접수되며, 마감 시간은 17시까지입니다. 서류 제출 대상자와 방법에 대한 자세한 내용은 입학안내 홈페이지에서 확인할 수 있습니다.
+4. **실기고사**: 
+   - 레저스포츠학과와 태권도학과는 2024년 1월 16일 (화)에 실시됩니다.
+   - 디자인조형학과, 산업디자인, 공예디자인, 체육학과는 2024년 1월 17일 (수)에 실시됩니다. 대기실 및 입실 시간은 2024년 1월 12일 (금) 오후 2시 이후에 입학안내 홈페이지에서 확인할 수 있습니다.
+5. **합격자 발표 및 등록금 납부**: 
+   - 최초 합격자 발표는 2024년 2월 2일 (금) 오후 2시부터입니다. 이날은 각 모집단위별로 개별적으로 조회할 수 있습니다.
+   - 충원 합격자는 1차, 2차, 3차 등으로 발표되며, 각각의 날짜와 시간에 따라 등록금을 납부하고 등록해야 합니다. 3차 이후에는 개별 전화 통보를 통해 발표됩니다.
+이 일정은 예시이며, 실제 일정은 변경될 수 있으므로 공식 입학안내 홈페이지에서 최신 정보를 확인하시기 바랍니다. 필요하다면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속하여 자세한 내용을 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 정시 모집 전형에서 수능 미응시자가 지원할 수 있다고 잘못된 정보를 제공하고 있습니다. 원문에서는 수능 성적이 요구되며, 수능 미응시자는 지원이 불가능하다고 명확히 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 포함하고 있습니다. 원문에서는 수능 미응시자가 지원할 수 없다고 명시되어 있는데, 생성된 응답은 수능 미응시자가 지원 가능한 전형을 나열하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 동의대학교 정시 모집 전형에 대한 질문에 직접적으로 관련된 내용을 다루고 있습니다. 그러나 잘못된 정보를 제공하고 있어, 관련성은 있지만 신뢰할 수 없습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 내용의 정확성 문제로 인해 전체적인 신뢰성에 영향을 미칩니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 전형에 대한 설명이 명확합니다. 그러나 원문과의 불일치로 인해 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 완전히 일치하지 않으며, 수능 미응시자가 지원할 수 있다고 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성에서 심각한 문제를 가지고 있어 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 의미적으로 일치하지 않으며, 잘못된 정보를 제공하고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있어 이해하기 쉽지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C354" t="n">
+        <v>0.6799006153699212</v>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 어떤 것이 있나요?</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집에서 수능 미응시자도 지원이 가능한 전형은 다음과 같습니다:
+1. **학생부교과(농어촌학생전형)**
+2. **학생부종합(평생학습자전형)**
+위와 같은 전형에서는 수능 점수가 요구되지 않거나, 수능 미응시자도 지원이 가능합니다.</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 전년도 전자공학과의 충원 합격 차수에 대한 정보가 없다고 언급하고 있지만, 원본 텍스트에서는 충원 합격이 36명까지 이루어졌다고 명확히 언급하고 있습니다. 따라서 사실적으로 정확하지 않은 부분이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부 일치하지만, 충원 합격에 대한 구체적인 정보가 누락되어 있어 일관성이 떨어집니다. 원본 텍스트의 내용을 완전히 반영하지 못하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 충원 합격에 대한 구체적인 정보를 제공하지 않아 다소 부족합니다. 그러나 관련된 정보 제공을 시도하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 원본 텍스트의 핵심 정보를 포함하지 않아 완전한 일관성을 보이지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 완전히 반영하지 않으며, 충원 합격에 대한 구체적인 수치를 누락하고 있습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 응답의 질이 다소 부족합니다. 사실성과 일관성에서 문제가 있으며, 전반적으로 원본 텍스트의 내용을 충분히 반영하지 못하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 구체적인 정보가 부족하여 완전한 적합성을 보이지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 정보의 부족으로 인해 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>0.66971756476496</v>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>전년도에 전자공학과의 충원 합격은 몇차까지 이루어졌습니까?</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 전년도 전자공학과의 충원 합격이 이루어진 차수에 대한 자세한 내용이 없습니다. 따라서 정확한 답변을 드리기 어렵습니다.
+더 자세한 정보를 얻으시려면, 해당 대학의 입학처 웹사이트인 [http://ipsi. deu. ac. kr/main. do](http://ipsi.deu.ac.kr/main.do)를 방문하여 확인해보시거나, 직접 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 입학관리팀의 전화번호가 포함되어 있지 않다고 주장하지만, 원본 텍스트에는 명확하게 전화번호가 제공되어 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 전화번호를 명시하고 있지만, 생성된 응답은 이를 부정하고 있습니다. 이로 인해 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 전화번호에 대한 정보를 무시하고 다른 정보를 제공하고 있지만, 원본 텍스트의 핵심 주제와 관련이 적습니다. 따라서 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 원본 텍스트와의 불일치로 인해 내용의 흐름이 약간 방해받습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장을 가지고 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 전화번호에 대한 정보가 잘못 전달되고 있습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 잘못 이해하고 있으며, 전화번호에 대한 정보가 부정확하게 전달되고 있습니다. 따라서 의미 적합성이 낮습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다. 따라서 이해 가능성이 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>0.6747537496491464</v>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>동의대학교 입학처 전화번호는 무엇입니까?</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 동의대학교 입학처의 전화번호가 포함되어 있지 않습니다. 추가로 필요한 정보를 확인하기 위해서는 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 방문해보시거나, 직접 동의대학교 입학처에 연락하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 전화 통화가 되지 않는 경우에 대한 정보가 잘못 전달되고 있습니다. 원본 텍스트에서는 전화 연락이 두절되면 해당 지원자는 등록 의사가 없는 것으로 간주된다고 명시하고 있지만, 생성된 응답에서는 홈페이지에서 결과를 확인할 수 있다고 언급하고 있어 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있습니다. 원본 텍스트는 전화 통화가 되지 않을 경우의 처리 방침을 설명하고 있지만, 생성된 응답은 다른 절차를 제시하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 핵심적인 내용이 누락되어 있습니다. 전화 통화가 되지 않을 경우의 처리에 대한 정보가 아닌 다른 절차에 대한 설명이 포함되어 있어 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어집니다. 정보가 분리되어 있어 통일된 메시지를 전달하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 다르게 정보를 전달하고 있습니다. 전화 통화가 되지 않을 경우의 처리 방식에 대한 정확한 설명이 부족합니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 품질 차원에서 낮은 점수를 받고 있습니다. 사실성, 일관성, 정확성에서 부족함이 드러나며, 전반적으로 원본 텍스트와의 관계가 약합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 내용이 포함되어 있습니다. 따라서 의미의 적절성에서 중간 점수를 받습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 원본 텍스트와의 관계가 명확하지 않아 일부 독자에게 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C357" t="n">
+        <v>0.5028366920846599</v>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대해 개별 전화 통보를 할 때 전화 통화가 되지 않으면 어떻게 처리되나요?</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대한 개별 전화 통보 시 전화 통화가 되지 않는 경우, 해당 합격자는 홈페이지에서 개별 조회를 통해 결과를 확인할 수 있습니다. 또한 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령 가능하며, 등록장소는 학교 지정은행으로 처리해야 합니다. 이와 관련된 자세한 내용은 "https://ipsi. deu. ac. kr/main. do"를 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 제출해야 할 서류에 대한 주요 정보를 포함하고 있으며, 대부분의 내용을 정확하게 반영하고 있습니다. 그러나 고등학교 학교생활기록부에 대한 언급이 부족하고, 추가 정보 및 주의사항이 생략되어 있어 완전한 정확성에는 미치지 못합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 일부 내용을 일관되게 반영하고 있지만, 모든 세부 사항을 포함하지 않아 일관성이 떨어집니다. 특히, 제출 기간과 주의사항이 누락되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 제출해야 할 서류에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 추가 정보가 누락되어 있어 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 대부분의 사실을 정확하게 반영하고 있지만, 일부 세부 사항이 누락되어 있어 완전한 정확성에는 미치지 못합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 일부 세부 사항이 누락되어 있어 완전한 적절성에는 미치지 못합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 정보가 누락되어 있어 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C358" t="n">
+        <v>0.7164326947779356</v>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야할 서류를 알려줘</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>농어촌 학생전형으로 지원 시 제출해야 할 서류는 유형에 따라 다르게 요구됩니다. 
+1. **6년 과정**:
+   - 지원자 본인의 가족관계증명서 (1부)
+   - 지원자 본인, 부모의 주민등록초본 각 1부 (총 3부)
+   - 중학교 학교생활기록부 (1부)
+   - 고등학교 학교생활기록부 (1부)
+2. **12년 과정**:
+   - 지원자 본인의 주민등록초본 (1부)
+   - 초등학교 학교생활기록부 (1부)
+   - 중학교 학교생활기록부 (1부)
+   - 고등학교 학교생활기록부 (1부)
+이 외에 추가로 요구되는 서류가 있을 수 있으므로, 정확한 정보를 얻기 위해서는 공식 웹사이트인 "https://ipsi.deu.ac.kr/main.do"를 참조하시거나, 대학 관계자에게 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으며, 필요한 서류 목록을 정확하게 나열하고 있습니다. 그러나 "주소변동사항이 포함된 서류를 발급받아 제출해야 합니다."라는 부분이 누락되어 있어 점수를 4로 평가합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 필요한 서류를 나열하고 있습니다. 다만, 추가 서류에 대한 설명이 부족하여 약간의 일관성 결여가 느껴집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 필요한 서류에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 약간의 어색한 표현이 있어 점수를 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 서류 목록이 명확하게 제시되어 있습니다. 그러나 추가 서류에 대한 설명이 부족하여 약간의 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으나, 일부 세부사항이 누락되어 있어 점수를 4로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받았습니다. 그러나 일부 세부사항의 누락으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있으나, 일부 세부사항이 누락되어 있어 점수를 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다. 그러나 약간의 어색한 표현이 있어 점수를 4로 평가합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C359" t="n">
+        <v>0.8434535214429686</v>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야할 서류는?</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형 지원 시 필요한 서류는 다음과 같습니다:
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+   - 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+이러한 서류를 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 기회균등 전형이 존재하지 않는다는 사실을 정확하게 반영하고 있으며, 저소득 기회균등 전형이 실시되지 않는다는 점도 언급하고 있습니다. 그러나 "대구교육대학교"라는 잘못된 정보가 포함되어 있어 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 응답은 기회균등 전형이 존재하지 않는다는 점에서 일관성을 유지하고 있지만, 대구교육대학교에 대한 언급은 원본 텍스트와 일치하지 않으므로 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 기회균등 전형에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 읽기 쉽고 자연스럽습니다. 다만, "저소득 기회균등 전형"이라는 표현이 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 잘 연결되어 있으며, 주제에 대한 명확한 설명을 제공합니다. 그러나 대구교육대학교에 대한 언급이 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 응답은 기회균등 전형이 존재하지 않는다는 점에서 정확하지만, 대구교육대학교에 대한 언급은 사실과 다릅니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 응답은 높은 품질을 유지하고 있으며, 사실성과 관련성에서 강점을 보입니다. 그러나 일관성과 정확성에서 약간의 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 대구교육대학교에 대한 언급이 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 표현이 다소 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C360" t="n">
+        <v>0.6981098334198313</v>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>정시모집에서 저소득 기회균등 전형은 선발하지 않나요?</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>2023년 나군 정시 모집에서는 저소득 기회균등 전형을 실시하지 않습니다. 따라서 저소득 기회균등 전형으로 지원하는 것은 불가능합니다.
+더 자세한 정보는 https://ipsi.deu.ac.kr/main.do 웹사이트를 참조하시거나, 대구교육대학교 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능 최저등급에서 2.5등급이 절사되지 않고 그대로 반영된다고 주장하지만, 원본 텍스트에서는 절사 여부에 대한 구체적인 정보가 없다고 명시하고 있습니다. 따라서 생성된 응답은 원본 텍스트와 상충하는 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 원본에서 언급된 정보와 상반되는 주장을 하고 있습니다. 원본 텍스트는 절사 여부에 대한 정보가 없다고 명시하고 있으므로, 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 수능 최저등급과 관련된 정보를 제공하고 있지만, 원본 텍스트의 핵심 질문에 대한 정확한 답변을 제공하지 않기 때문에 관련성이 떨어집니다. 원본 텍스트의 요청에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 원본 텍스트의 정보와 연결되지 않아 흐름이 매끄럽지 않습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상충하는 잘못된 정보를 포함하고 있습니다. 원본 텍스트는 절사 여부에 대한 정보가 없다고 명시하고 있으므로, 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 원본 텍스트와의 불일치로 인해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 주장을 하고 있습니다. 따라서 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 쉬운 편입니다. 그러나 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C361" t="n">
+        <v>0.6826001312238683</v>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>수능 최저등급에서 사탐 2 과목 평균산출이라고 나와있는데 만약 2.5등급이 나오면 절사하나요? 아님 그대로 2.5등급으로 보는건가요?</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>2.5 등급은 절사되지 않고 그대로 반영됩니다. 수능 최저등급에서 사탐(사회탐구 또는 과학탐구)의 평균산출이 2.5 등급이라면, 이는 실제 점수로 변환되어 그대로 사용됩니다. 예를 들어, 4과목 중 2과목을 선택하여 평균산출한 결과가 2.5 등급이라면, 해당 등급은 최종적으로 그대로 반영됩니다.
+만약 더 자세한 정보나 다른 질문이 있으시다면, "https://ipsi.deu.ac.kr/main.do" 링크를 참고하시거나 관계된 부서에 문의해보세요.</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 발표 일정과 방식에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 발표 차수와 날짜에 대한 정보가 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용과 직접적으로 관련이 있으며, 질문에 대한 적절한 답변을 제공합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조가 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 명확합니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C362" t="n">
+        <v>0.7992035043346353</v>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 몇차까지 있나요?</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 정시 충원 합격자 발표는 총 3차까지 있습니다. 첫 번째 충원은 2024년 2월 14일(수)에 이루어지고, 두 번째 충원은 같은 날인 2024년 2월 15일(목)에 발표됩니다. 마지막으로 세 번째 충원은 2024년 2월 15일(목)부터 2024년 2월 20일(화)까지 개별 전화 통보를 통해 이루어집니다.
+따라서 정시 충원 합격자 발표는 총 3차로 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 e-비즈니스학과의 수능 성적과 관련된 정보를 제공하고 있으며, 평균 점수와 비교하여 합격 가능성을 언급하고 있습니다. 그러나 모집 인원과 지원 인원에 대한 구체적인 데이터가 없다는 점에서 일부 정보가 부족합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, 모집 인원과 지원 인원에 대한 가정이 추가되어 있어 일관성이 떨어질 수 있습니다. 원본 텍스트의 내용과는 다소 다른 방향으로 전개되고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 e-비즈니스학과의 정시 전형과 관련된 질문에 대해 직접적으로 답변하고 있으며, 관련된 정보를 충분히 포함하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 일부 부분에서 주제가 전환되는 느낌이 있어 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 바탕으로 합격 가능성을 논의하고 있으며, 전반적으로 정확한 정보를 제공하고 있습니다. 그러나 모집 인원과 지원 인원에 대한 가정이 포함되어 있어 완전한 정확성은 떨어질 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있으며, 전반적으로 유용한 정보를 제공합니다. 그러나 일부 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 일부 가정이 포함되어 있어 완전한 적절성은 떨어질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C363" t="n">
+        <v>0.5516882687462954</v>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>e비즈니스학과 수능 성적이 4.6이면 정시 전형으로 추가 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 e비즈니스학과의 정시 전형에 대한 모집 인원 및 지원 인원 등의 자세한 데이터가 없어 정확한 판단을 내리기 어렵습니다. 
+e비즈니스학과의 경우, 수능 성적이 4.6이면 해당 학과의 경쟁률과 모집인원 등을 고려하여 추가로 합격 가능할지 예측해야 합니다.
+만약 e비즈니스학과의 모집 인원이 10명이고 지원 인원이 50명이라면, 평균 수능 성적은 더 높아야 할 것이며, 4.6이라는 점수로 추가 합격 가능성은 낮을 것입니다.
+하지만, 만약 모집인원이 많고 경쟁률이 낮다면, 4.6의 수능 성적도 충분히 추가 합격 가능성이 있을 수 있습니다.
+따라서, 정확한 판단을 위해서는 e비즈니스학과의 모집 인원 및 지원 인원 등의 자세한 정보를 확인해야 합니다. 필요하다면, 제공된 링크를 통해 더 자세한 정보를 얻으시기 바랍니다. https://ipsi. deu. ac. kr/main. do</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 e비즈니스학과의 정시 등급 정보가 제공되지 않았다고 언급하고 있지만, 원본 텍스트에서는 평균 등급과 합격 가능성에 대한 구체적인 정보를 제공하고 있습니다. 따라서, 사실적으로 정확하지 않은 부분이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않는 부분이 있습니다. 원본 텍스트는 정시 등급이 5.3일 경우 합격이 어려울 수 있다고 명시하고 있지만, 생성된 응답은 판단하기 어렵다고 하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 원본 텍스트에서 제공하는 구체적인 정보에 대한 언급이 부족합니다. 그러나 웹사이트 링크를 제공하여 추가 정보를 찾을 수 있도록 안내하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 문장 구조와 표현이 자연스럽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 원본 텍스트와의 연결이 약간 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 완전히 반영하지 않으며, 특히 합격 가능성에 대한 판단이 원본 텍스트와 상충합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 정보의 정확성에서 약간의 문제가 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있어, 독자가 쉽게 내용을 파악할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C364" t="n">
+        <v>0.6953230867077451</v>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>정시 등급 5.3이면 동의대학교에 e비즈니스학과에 최초 합격 가능성 있을까?</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 e비즈니스학과에 대한 정시 등급 정보가 제공되지 않았습니다. 따라서, 정시 등급이 5.3일 때 e비즈니스학과에 최초 합격 가능성은 판단하기 어렵습니다.
+추가적인 정보를 얻기 위해서는 다음과 같은 웹사이트를 참조해보세요:
+https://ipsi.deu.ac.kr/main.do
+이 사이트에서 2024학년도 동의대학교 e비즈니스학과에 대한 정시 등급 기준을 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 e비즈니스학과의 예비 합격 가능성에 대한 정보를 제공하는 대신, 특정 학생의 합격 여부를 판단하기 어렵다고 언급하고 있습니다. 그러나 원본 텍스트에서는 예비 38번의 경우 예비 합격 가능성이 낮다고 명확히 언급하고 있습니다. 또한, e비즈니스학전공이 2024년도에 신설되지 않았다는 정보는 사실이지만, 원본 텍스트의 핵심 정보를 간과하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않는 부분이 많습니다. 원본 텍스트는 예비 38번의 합격 가능성이 낮다고 명확히 말하고 있지만, 생성된 응답은 이를 부정하는 내용으로 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 관련된 정보를 제공하고 있지만, 주제에서 벗어난 내용이 포함되어 있습니다. 예비 합격 가능성에 대한 질문에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 주제를 다루고 있지만, 논리적인 흐름이 부족하여 일관성이 떨어집니다. 원본 텍스트의 핵심 주제와의 연결이 약합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 사실을 포함하고 있지만, 원본 텍스트의 핵심 사실을 정확히 반영하지 못하고 있습니다. 예비 38번의 합격 가능성에 대한 정보가 누락되었습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 부족한 점이 많습니다. 사실성, 일관성, 관련성 모두 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 일부 일치하지만, 주제와 관련된 정보가 부족하여 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있지만, 주제와 관련된 정보가 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C365" t="n">
+        <v>0.5869117667626205</v>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>e비즈니스학전공 예비 38번 이정도면 예비합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 특정 학생의 합격 여부를 정확히 판단하기 어렵습니다. 이정도라는 표현이 구체적인 성적이나 평가 결과를 의미하는지 명확하지 않습니다.
+2024학년도에 변경된 학과 및 전공 명칭, 모집인원 등은 다음과 같습니다:
+- 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+- 심리학과
+- 스마트항만물류학과
+- 창업투자경영학과
+- 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+- 경기지도학과
+e비즈니스학전공은 2024년도에 신설되지 않았으며, 현재는 e비즈니스 관련 학과가 없습니다. 따라서 이정도면 예비합격 가능할 것이라는 답변을 드릴 수 없습니다.
+더 구체적인 정보를 제공해 주시거나, https://ipsi. deu. ac. kr/main. do 링크를 통해 공식 웹사이트에서 최신 정보를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 평균 등급과 합격 가능성에 대한 정보를 정확하게 반영하고 있습니다. 그러나 "0.44의 성적"이라는 부분은 잘못된 정보로 보이며, 이는 3.44로 수정되어야 합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 응답은 전반적으로 일관성을 유지하고 있지만, "0.44의 성적"이라는 잘못된 수치로 인해 일관성이 떨어집니다. 나머지 내용은 일관되게 간호학과의 합격 가능성에 대해 설명하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 간호학과의 합격 가능성에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 응답은 전반적으로 유창하게 작성되었으나, "0.44의 성적"이라는 부분이 문맥상 어색하게 느껴질 수 있습니다. 나머지 문장은 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 잘못된 성적 수치로 인해 약간의 혼란이 있을 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 응답의 대부분은 정확하지만, "0.44의 성적"이라는 잘못된 정보가 포함되어 있어 정확성 점수가 낮아졌습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 응답은 전반적으로 높은 품질을 유지하고 있으나, 잘못된 성적 수치로 인해 일부 차질이 발생했습니다. 나머지 요소들은 잘 반영되고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, 잘못된 성적 수치로 인해 의미 전달에 약간의 문제가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽지만, 잘못된 성적 수치로 인해 혼란을 줄 수 있습니다. 나머지 내용은 명확하게 전달되고 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C366" t="n">
+        <v>0.6606707155476034</v>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>정시 성적 3.44인데 동의대학교 간호학과에 합격 가능성 없을까요?</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>0.44의 성적이 동의대학교 간호학과에 합격할 확률은 매우 낮습니다. 동의대학교 간호학과는 정시 모집에서 높은 점수를 요구합니다.
+간호학과의 경우, 특히 교직 인증을 받기 위해서는 높은 성적이 필요하며, 3.44이라는 성적은 합격 기준에 미치지 못할 가능성이 큽니다. 정확한 합격 확률을 확인하려면 동의대학교 간호학과의 최저 합격 점수를 참조해야 합니다.
+만약 합격이 어렵다면, 다른 대학이나 전공을 고려해 보는 것이 좋습니다. 추가로 지원할 수 있는 대학이나 전공에 대한 정보를 제공하거나, 필요하다면 "https://ipsi. deu. ac. kr/main. do" 링크를 참조하여 더 자세한 정보를 얻으실 수 있습니다.
+또한, 평생 학습자나 성인 학습자의 경우 다른 전형을 통해 지원할 수도 있으니, 해당 정보도 확인해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 간호학과의 평균 영어 등급을 1.86로 제시하고 있으나, 원본 텍스트에서는 평균 영어 등급이 2.34로 명시되어 있습니다. 또한, 수능 4개 영역 등급 평균에 대한 언급이 없고, 경쟁률에 대한 정보도 원본 텍스트에 포함되어 있지 않아 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않는 여러 요소를 포함하고 있습니다. 예를 들어, 평균 영어 등급과 수능 등급 평균이 다르게 제시되며, 경쟁률에 대한 정보도 원본 텍스트에 없기 때문에 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과의 합격 가능성에 대한 질문에 대한 답변을 제공하고 있지만, 원본 텍스트의 핵심 정보와는 다소 동떨어진 내용이 포함되어 있습니다. 경쟁률과 다른 과목의 평균 점수에 대한 정보는 관련성이 있지만, 원본 텍스트의 주제와는 직접적으로 연결되지 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 약간의 이해를 필요로 할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 정보 간의 연결이 명확하지 않아 일관된 흐름이 부족합니다. 특히, 경쟁률과 평균 점수에 대한 정보가 서로 연결되지 않아 논리적 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 여러 면에서 일치하지 않으며, 특히 평균 영어 등급에 대한 정보가 잘못되어 있습니다. 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 품질 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 전반적으로 원본 텍스트와의 관계가 약합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 정보가 포함되어 있어 의미의 일관성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 일부 정보가 복잡하게 제시되어 있어 약간의 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>0.5197543426589181</v>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.52인데 동의대학교 간호학과 최종 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 지원 경쟁률은 6.59이며, 충원 합격者的，您提到的分数2.52对应的是英语等级。根据提供的数据，东义大学护理学专业的英语平均成绩为1.86（标准差0.75），您的英语成绩2.52高于该专业平均英语成绩。
+此外，护理学专业的国语+数学+探究（2个）（加分包括在内）的标准转换分数总和的平均值是357.63（标准差5.37）。如果您的其他科目成绩能够达到这个水平或更高，那么理论上您有可能被该专业录取。
+但是，最终能否被录取还取决于多种因素，包括但不限于您的具体学科成绩、个人陈述、面试表现等。建议详细查看东义大学的招生简章和相关要求，并咨询学校的招生办公室以获取更准确的信息。如果需要进一步的帮助或有其他问题，请告诉我！</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 간호학과의 평균 등급에 대한 정보와 3.7의 정시 등급이 낮다고 언급한 원본 텍스트와 상반된 내용을 포함하고 있습니다. 따라서 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않으며, 정시 등급이 3.7인 경우 합격 가능성이 낮다고 한 원본의 주장을 반박하는 내용을 포함하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과의 합격 가능성에 대한 정보를 제공하지만, 원본 텍스트의 핵심 내용인 정시 등급과 평균 등급 비교에 대한 직접적인 언급이 부족합니다. 따라서 관련성이 중간 정도입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원본 텍스트와의 연결이 약해 논리적인 흐름이 다소 부족합니다. 따라서 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상반되는 내용을 포함하고 있어 정확성이 낮습니다. 특히, 3.7의 정시 등급이 높은 성적이라고 언급한 부분이 문제입니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 품질 차원에서 생성된 응답이 원본 텍스트와의 일치성이 낮고, 사실성, 일관성, 정확성 모두에서 부족함이 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과에 대한 정보를 제공하지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있어 의미적으로 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 일부 내용이 원본과 상충하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C368" t="n">
+        <v>0.6457531614141063</v>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>정시 성적이 3.7인데 정시 전형으로 간호학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>2024년도의 정시 모집군 변경 정보를 바탕으로 간호학과에 대한 합격 가능성에 대해 판단해보겠습니다.
+간호학과는 일반적으로 정시 모집군이 '가'로 설정되어 있습니다. 2024년도에는 '가'와 '다'로 나뉘어져 있지만, 간호학과는 '가'에서 모집됩니다.
+2024년도의 학생부 교과성적 반영방법은 다음과 같습니다:
+- 반영과목: 전 모집단위 12과목 (국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목)
+- 학생부교과 성적 반영 비율: 60%
+3.7의 평균 점수는 대체로 좋은 성적으로 간호학과에 지원하는 학생들의 점수보다 높은 편입니다. 따라서, 2024년도의 정시 모집에서 간호학과에 합격할 가능성이 높습니다.
+하지만, 최종 합격 여부는 여러 요소가 결합되어 결정되므로, 정확한 정보를 얻기 위해서는 해당 대학의 입학처 웹사이트나 전화로 문의하는 것이 좋습니다. 필요하다면 "https://ipsi. deu. ac. kr/main. do" 링크를 참조하여 더 자세한 정보를 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과의 평균 영어 등급을 1.86으로 제시하고 있지만, 원본 텍스트에서는 평균 영어 등급이 2.34로 명시되어 있습니다. 이로 인해 사실관계에서 일부 오류가 발생하였고, 전체적인 정보는 제공되었으나 정확한 수치가 잘못되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 평균 영어 등급에 대한 정보가 상충하여 일관성이 떨어집니다. 또한, 지원자의 성적이 간호학과의 평균 점수와 비교하여 합격 가능성이 낮다고 판단하는 부분은 원본 텍스트의 긍정적인 해석과 상반됩니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 잘 다루고 있으며, 지원자의 성적과 간호학과의 평균 성적을 비교하는 내용이 포함되어 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 체계적으로 제시되어 있습니다. 그러나 평균 영어 등급에 대한 오류로 인해 전체적인 일관성이 약간 저하되었습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 평균 영어 등급에 대한 잘못된 수치로 인해 정확성이 떨어집니다. 전체적인 맥락은 이해할 수 있으나, 세부 사항에서 오류가 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 적절한 정보를 제공하지만, 사실관계와 일관성에서 문제가 있어 전반적인 품질이 다소 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 전반적으로 의미 전달이 잘 이루어졌습니다. 그러나 일부 수치의 오류로 인해 의미 전달에 약간의 혼란이 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 정보의 오류로 인해 혼란을 줄 수 있는 요소가 존재합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C369" t="n">
+        <v>0.6647729184880942</v>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.58인데 동의대학교 간호학과에 정시 전형으로 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 간호학과의 정시 모집에서 지원자의 평균 점수와 경쟁률을 고려해보겠습니다.
+간호학과의 정시 모집에 대한 정보는 다음과 같습니다:
+- 모집 인원: 22명
+- 지원 인원: 145명
+- 경쟁률: 6.59대 1
+- 충원 합격 (후보순위): 37명
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 357.63
+지원자의 정시 성적이 2.58이면, 이는 영어 등급에 해당합니다.
+- 2024년 동의대학교 간호학과의 영어 등급 평균은 1.86입니다.
+영어 등급만으로는 충분한 점수가 아니라는 것을 알 수 있습니다. 정시 모집에서는 국어, 수학, 탐구 등의 성적도 함께 고려되기 때문에, 단순히 영어 등급만으로 합격을 보장할 수 없습니다.
+이 정보를 바탕으로, 지원자의 성적이 간호학과의 평균 점수와 비교해보면, 합격 가능성은 낮다고 판단됩니다. 그러나 정확한 합격 여부는 지원자의 전체 성적과 경쟁률을 고려하여 결정되므로, 최종 합격 여부는 동의대학교에서 발표하는 결과를 확인해야 합니다.
+더 자세한 정보나 추가적인 질문이 있으시다면, https://ipsi. deu. ac. kr/main. do 를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 게임공학과의 예비 합격 가능성에 대한 정보를 제공하지 않고, 대신 모집단위 및 모집인원에 대한 정보가 없다고 언급하고 있습니다. 이는 원본 텍스트의 핵심 정보를 간과한 것으로, 예비 7번의 합격 가능성에 대한 명확한 답변이 부족합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용과 일부분 일치하지만, 예비 7번의 합격 가능성에 대한 언급이 없고, 대신 다른 정보에 초점을 맞추고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 게임공학과에 대한 추가 정보를 제공하려고 하지만, 원본 텍스트의 질문에 대한 직접적인 답변이 부족하여 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 원본 텍스트와의 연결이 약해져서 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 핵심 사실을 정확하게 반영하지 않으며, 예비 7번의 합격 가능성에 대한 정보가 누락되어 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 여러 차원에서 중간 정도의 품질을 보이며, 특히 사실성과 일관성에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 의미적으로 적절하지만, 원본 텍스트의 질문에 대한 직접적인 답변이 부족하여 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽지만, 원본 텍스트와의 연결이 약해져서 질문에 대한 명확한 답변이 부족합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C370" t="n">
+        <v>0.5882401519083555</v>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>게임공학과 예비번호 7번인데요 붙을까요?</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 현재 제공된 정보로는 게임공학과에 대한 모집단위 및 모집인원 등의 정보가 없습니다. 게임공학과의 경우 나군 조기취업형계약학과전형에서 모집이 이루어질 수 있지만, 특정 단과대학이나 계열, 모집단위, 모집인원 등은 위에서 제공된 데이터로 확인할 수 없습니다.
+추가적인 정보를 얻으시려면 다음과 같은 방법을 추천드립니다:
+1. https://ipsi. deu. ac. kr/main. do 웹사이트를 방문하여 최신 정보를 확인하세요.
+2. 입학처에 직접 문의하시거나 전화로 연락주시기 바랍니다.
+이러한 절차를 통해 정확한 정보를 얻으실 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 수능 성적 4.16이 게임공학과의 평균 등급보다 높은 성적이라는 점을 언급하고 있지만, 추가 합격에 대한 예측이 어렵다는 점에서 원문과 일치합니다. 그러나, 원문에서 제공된 구체적인 평균 등급 수치(영어 등급 평균 3.25, 수능 4개 영역 등급 평균 4.78)에 대한 언급이 부족하여 점수를 4로 평가했습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 언급된 정보와 일부 일치하지만, 추가 합격에 대한 예측이 어렵다는 점에서 원문과의 일관성이 떨어집니다. 원문은 합격 가능성이 높다고 명시하고 있으나, 생성된 응답은 확신을 내기 어렵다고 하여 상반된 메시지를 전달하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문의 주제와 관련된 정보를 제공하며, 게임공학과의 지원에 필요한 요소들을 잘 설명하고 있습니다. 따라서 매우 관련성이 높다고 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴져 점수를 4로 평가했습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나 일부 문장에서 정보의 흐름이 다소 끊기는 느낌이 있어 점수를 4로 평가했습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 대체로 일치하지만, 구체적인 수치에 대한 언급이 부족하여 정확성에서 약간의 부족함이 있습니다. 따라서 4로 평가했습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있어 4로 평가했습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과의 의미적 일치도가 높지만, 일부 문장에서 원문의 의도를 완전히 반영하지 못한 부분이 있어 점수를 4로 평가했습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 일부 문장에서 복잡한 표현이 사용되어 약간의 혼란을 줄 수 있어 점수를 4로 평가했습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C371" t="n">
+        <v>0.6531601987449352</v>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>수능 성적이 4.16인데 정시 전형으로 동의대학교 게임공학과에 지원하면 추가 합격이 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>4.16이라는 수능 점수를 가지고 동의대학교 게임공학과의 정시 전형에 지원하려고 한다면, 현재 제공된 정보만으로는 충분한 확신을 내기 어렵습니다. 게임공학과의 모집단위와 해당 전형의 경쟁률 등을 고려해야 합니다.
+동의대학교 게임공학과의 경우, 2024년도 모집에 대한 자세한 정보를 확인해보면 다음과 같은 점들이 중요합니다:
+1. **모집인원**: 게임공학과의 정확한 모집인원은 제공된 정보에서 확인할 수 있습니다.
+2. **경쟁률**: 지원자의 수능 성적 4.16이 경쟁률에 어떤 영향을 미치는지 파악해야 합니다.
+3. **전형별 평균 점수와 표준 편차**: 제공된 정보에서 해당 전형의 평균 점수와 표준 편차를 확인하여, 지원자의 성적이 어느 수준에 위치하는지를 판단할 수 있습니다.
+현재 제공된 정보만으로는 정확한 답변을 드릴 수 없습니다. 더 자세한 정보를 얻기 위해서는 동의대학교의 공식 웹사이트 (https://ipsi. deu.ac.kr/main.do)에서 해당 전형과 모집단위에 대한 자세한 내용을 확인하거나, 입학처와 직접 문의하는 것이 좋습니다.
+추가적으로 지원자의 성적 외에도 학생부 교과성적, 면접 성적 등 다양한 요소들이 평가대상이므로, 전반적인 준비를 철저히 하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 경영정보학과의 정시 모집에 대한 구체적인 정보를 제공하지 않으며, 원본 텍스트에서 제시된 평균 등급과 합격 가능성에 대한 내용을 무시하고 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 경영정보학과의 성적 기준에 대한 정보를 제공하지 않고 있습니다. 이는 원본 텍스트와의 일관성이 부족하다는 것을 나타냅니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 정시 성적 기준에 대한 질문에 대한 답변으로는 다소 관련성이 있지만, 원본 텍스트의 핵심 정보를 다루지 않고 있습니다. 따라서 중간 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트의 정보와 연결되지 않아 일관성이 떨어집니다. 따라서 중간 점수를 부여합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 반영하지 않으며, 경영정보학과의 성적 기준에 대한 정확한 정보를 제공하지 않습니다. 따라서 낮은 점수를 부여합니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 품질 차원에서 낮은 점수를 받으며, 사실성, 일관성, 정확성에서 부족함을 보입니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 원본 텍스트의 맥락과는 다소 동떨어져 있습니다. 따라서 중간 점수를 부여합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 원본 텍스트와의 관련성이 부족하여 질문에 대한 명확한 답변으로는 부족합니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C372" t="n">
+        <v>0.6027023707486349</v>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적 3.75 인데 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 경영정보학과의 정시 모집에 대한 상세한 내용이 포함되어 있지 않습니다. 따라서 경영정보학과의 정시 성적 기준을 확인하기 위해서는 공식 입학 안내 웹사이트를 참조하거나 학교 관계자에게 문의하는 것이 가장 정확할 것입니다.
+입학 관련 자세한 정보는 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)에서 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 합격 가능성에 대한 명확한 판단을 내리지 않고 있으며, 제공된 정보에 대한 해석이 다소 모호합니다. 원본 텍스트의 구체적인 수치와 합격 가능성에 대한 언급이 누락되어 있어 사실성 점수가 낮습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 일부 반영하고 있으나, 경영정보학과의 평균 등급에 대한 언급이 없고, 합격 가능성에 대한 판단이 원본과 일치하지 않습니다. 따라서 일관성 점수가 중간 정도입니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 정시 지원 가능성에 대한 질문에 관련된 정보를 제공하고 있으나, 원본 텍스트의 구체적인 수치와 비교하여 다소 일반적인 내용으로 흐르고 있습니다. 관련성 점수는 높지만 완전하지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 연결되어 있습니다. 그러나 원본 텍스트와의 연결이 약해 다소 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 수치와 합격 가능성에 대한 정보를 명확히 반영하지 않고 있습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서의 품질이 중간 정도로 평가됩니다. 사실성과 일관성에서 다소 부족함이 있으며, 관련성은 높지만 정확성이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하고 있습니다. 그러나 구체적인 수치에 대한 언급이 부족하여 완전한 적절성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다. 따라서 이해 가능성 점수는 높지만 완전하지는 않습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C373" t="n">
+        <v>0.638396231436028</v>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적이 4.2입니다. 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 경영정보학과에 정시로 지원 가능한지 확정적으로 판단하기 어렵습니다. 경영정보학과의 정시 합격 기준은 전형별, 모집단위별로 다를 수 있으며, 지원자의 성적 외에도 다른 요소들이 고려될 수 있습니다.
+현재 제공된 정보는 인문사회과학대학 내 여러 학과들의 최초합격자 통계만을 보여주고 있으므로, 경영정보학과의 정시 합격 기준에 대한 자세한 내용은 동의대학교 입학처 웹사이트를 참조하거나 직접 문의하는 것이 가장 정확할 것입니다.
+추가로, 지원 가능성을 확인하려면 다음과 같은 정보를 확인해보세요:
+1. 경영정보학과의 정시 합격 기준 점수
+2. 해당 학과에서 요구하는 추가 서류나 자격 요건
+자세한 내용은 동의대학교 입학처 웹사이트(https://ipsi. deu.ac.kr/main.do)를 참조하시거나, 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 경영정보학과의 합격 가능성에 대한 정보를 제공하지만, 원본 텍스트에서 제시된 평균 등급과 비교하여 합격 가능성이 낮다는 명확한 사실을 언급하지 않고 있습니다. 따라서 일부 사실이 누락되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, 합격 가능성에 대한 명확한 판단을 피하고 있습니다. 이는 원본 텍스트의 결론과 일치하지 않으므로 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 동의대학교 경영정보학과의 합격 여부를 판단하기 위한 추가 정보를 제공하며, 원본 텍스트의 주제와 관련이 깊습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있지만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 순차적으로 제시되어 이해하기 쉽습니다. 그러나 일부 문장이 연결이 약해 보일 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 완전히 반영하지 않으며, 합격 가능성에 대한 명확한 판단을 제공하지 않기 때문에 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 관련성이 높고, 유용한 정보를 제공하지만, 사실성과 일관성에서 다소 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 맥락에 적절하게 의미를 전달하고 있지만, 합격 가능성에 대한 명확한 언급이 부족하여 다소 아쉬운 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길어져서 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C374" t="n">
+        <v>0.5550835371582122</v>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>정시 성적이 5.33인데 동의대학교 경영정보학과 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 동의대학교 경영정보학과 일반학생전형에 대한 정확한 합격 여부를 판단하기 어렵습니다. 해당 대학의 정시 모집요강, 전형 기준 등 추가적인 정보가 필요합니다.
+대략적으로 다음과 같은 절차로 확인할 수 있습니다:
+1. 동의대학교 홈페이지에서 '2024년도 정시 모집요강'을 확인합니다.
+2. 경영정보학과의 모집전형 및 합격 기준을 확인합니다.
+3. 자신의 국어, 수학, 영어 등급을 해당 학과의 합격 기준과 비교합니다.
+특히, 동의대학교는 종종 학생부교과와 실기 등을 포함한 복합적인 전형을 진행하기 때문에, 정확한 판단을 위해서는 대학 홈페이지나 입학처에 직접 문의하는 것이 좋습니다.
+더 자세한 정보를 얻고자 한다면, 동의대학교 입학처 웹사이트 또는 연락처를 통해 확인하시기 바랍니다. 필요하다면 "https://ipsi. deu. ac. kr/main. do" 링크를 참조하여 대학 홈페이지를 방문해보세요.</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 바이오응용공학부의 최초등록자 선발 가능성에 대한 정보를 제공하고 있으며, 성적 외에도 인성, 학업역량, 전공적합성 등의 요소가 중요하다는 점을 언급하고 있습니다. 그러나 원본 텍스트에서 제시된 평균 성적에 대한 구체적인 언급이 없으므로, 일부 정보가 누락된 것으로 평가됩니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부분 일치하지만, 성적이 부족하더라도 다른 평가 요소가 중요하다는 점에서 원본 텍스트의 주된 메시지와는 다소 상충하는 부분이 있습니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 바이오응용공학부에 지원하는 것과 관련된 정보를 제공하며, 원본 텍스트의 주제와 직접적으로 관련이 있습니다. 따라서 매우 높은 관련성을 보입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있어 완벽한 유창성 점수는 아닙니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 일부 문장에서 주제가 약간 전환되는 느낌이 있어 완벽한 일관성은 아닙니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 대체로 정확하게 반영하고 있으나, 평균 성적에 대한 구체적인 수치가 누락되어 있어 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있어 4점으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 다만, 일부 내용이 원본 텍스트와 다소 다르게 해석될 수 있어 완벽한 점수는 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있어 4점으로 평가합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C375" t="n">
+        <v>0.6847305117505311</v>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 3.33 정도인데 바이오응용공학부 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>2024학년도에 바이오응용공학부(의생명공학과, 바이오의약공학과, 식품공학과)를 지원하실 경우, 학생부종합전형을 통해 최초등록자로 선발될 가능성이 있습니다. 하지만 성적은 전형 요소 중 하나일 뿐이며, 인성, 학업역량, 전공적합성 등 다양한 평가 영역이 반영됩니다.
+특히 2024학년도에는 학생부 교과성적이 더 많이 반영되므로 성적 외에도 다른 평가 요소들이 중요하게 작용할 수 있습니다. 따라서 성적이 약간 부족하다고 느껴지더라도, 인성 및 전공적합성 등에서 우수한 점수를 받는다면 최초등록자로 선발될 가능성이 있습니다.
+만약 자세한 정보가 필요하시면 https://ipsi. deu. ac. kr/main. do 웹사이트를 참조해보시거나, 대학 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과에 지원할 수 있는지에 대한 확실한 판단을 내리지 못하고 있으며, 방사선학과의 평균 등급에 대한 정보가 부족합니다. 그러나 방사선학과의 평균 등급과 관련된 정보를 언급하고 있어 일부 사실을 반영하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 평균 등급에 대한 언급이 없고, 지원 가능성에 대한 불확실성을 강조하고 있습니다. 이는 원본 텍스트의 정보와 일치하지 않으며, 다소 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과에 지원하기 위한 절차와 정보를 제공하고 있어 관련성이 높습니다. 그러나 원본 텍스트의 핵심 정보인 평균 등급에 대한 언급이 부족하여 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 반복적인 표현이 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 지원 절차에 대한 단계별 설명이 명확합니다. 그러나 원본 텍스트와의 연결이 약해 다소 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 평균 등급에 대한 구체적인 정보를 제공하지 않으며, 지원 가능성에 대한 판단이 불확실하다고 언급하고 있습니다. 이는 원본 텍스트의 정보와 다소 상충합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 원본 텍스트의 핵심 정보를 충분히 반영하지 못하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과에 지원하기 위한 절차를 설명하고 있어 의미적으로 적절합니다. 그러나 원본 텍스트의 핵심 정보와의 연결이 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 반복적인 표현이 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C376" t="n">
+        <v>0.6650604715246398</v>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>제가 지금 현재 정시 등급이 4.4정도고, 일반학생전형 생각중인데, 제 성적으로 방사선학과 갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>현재 제공된 정보만으로는 방사선학과에 지원할 수 있는지 확실하게 판단하기 어렵습니다. 방사선학과의 모집요강과 전형 점수를 확인해야 합니다.
+방사선학과에 지원하려면 다음과 같은 절차가 필요합니다:
+1. **모집요강 확인**: 동의대학교 웹사이트에서 해당 학과의 정시 모집요강을 확인하세요.
+2. **전형 점수 확인**: 전형별로 평균 점수와 경쟁률 등을 확인해 보세요.
+3. **성적 분석**: 현재 성적(4.4 등급)이 방사선학과의 평균 점수와 비교해 봅니다.
+만약 동의대학교 웹사이트에서 해당 정보를 찾을 수 없다면, "https://ipsi. deu.ac.kr/main.do" 링크를 통해 공식 홈페이지로 접속하여 확인하시거나, 학교 관계자에게 문의하시는 것이 좋습니다.
+현재 제공된 정보만으로는 방사선학과에 지원할 수 있는지 판단하기 어렵습니다. 자세한 정보를 얻기 위해서는 위와 같은 절차를 따르시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 방사선학과의 평균 점수와 경쟁률에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 평균 영어 등급과 수능 4개 영역 등급 평균에 대한 정보는 포함되어 있지 않으며, 잘못된 정보(예: 평균 점수 341.62)가 포함되어 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관되지 않으며, 방사선학과의 평균 점수와 관련된 정보가 다릅니다. 원본 텍스트는 2.66이 평균보다 높다고 언급했지만, 생성된 응답은 이를 반박하는 내용을 담고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과 지원에 대한 평가를 다루고 있으며, 원본 텍스트의 주제와 관련이 있지만, 일부 정보는 원본 텍스트와 직접적으로 연결되지 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어집니다. 정보가 명확하게 연결되지 않아 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 잘못된 평균 점수와 관련된 정보를 포함하고 있습니다. 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 사실성, 일관성, 정확성에서 큰 문제를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 원본 텍스트의 의미와 다소 어긋나는 부분이 있어 의미적으로 완벽하게 적절하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 일부 정보가 혼란스러울 수 있어 완벽한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C377" t="n">
+        <v>0.5909367581156912</v>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>방사선학과 정시로 2.66은 좀 위험할까요?</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>2.66이라는 점수를 방사선학과에서 정시로 지원하는 경우에 대해 평가해보겠습니다.
+방사선학과의 경쟁률은 7.20이며, 충원 합격자는 5명입니다. 지원 인원이 36명으로 많은 경쟁을 해야 합니다. 이 점수는 평균 점수인 341.62보다 낮습니다.
+평균 점수가 341.62이고 표준 편차가 9.80이라는 것을 고려하면, 2.66은 상당히 낮은 점수입니다. 이는 표준 정규 분포에서 매우 낮은 위치에 해당합니다 (대략 -2.57 표준편차 아래).
+따라서, 2.66이라는 점수로 방사선학과를 지원하는 것은 상당히 위험할 수 있습니다. 경쟁률이 높고 평균 점수가 높은 학과에서 낮은 점수로 지원하면 충원에 성공하기 어렵습니다.
+만약 가능하다면, 다른 학과나 더 낮은 경쟁률을 가진 학과를 고려해보는 것이 좋을 것 같습니다. 또는 추가적인 준비와 노력으로 점수를 높이는 것을 고려해볼 수 있습니다.
+더 자세한 정보가 필요하시다면, https://ipsi. deu. ac. kr/main. do 에 접속하여 확인해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경찰행정학과의 평균 영어 등급에 대한 정보를 추가했지만, 원본 텍스트에서 제공된 정보와는 관련이 적습니다. 또한, 농어촌 전형의 동점자 처리 기준에 대한 설명이 포함되어 있으나, 원본 텍스트의 핵심 내용과는 다소 차이가 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 추가된 정보가 원본의 맥락과 완전히 일치하지 않아서 일관성이 떨어집니다. 특히, 영어 등급에 대한 언급은 원본 텍스트에 포함되지 않은 정보입니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문에 대한 답변을 제공하고 있으며, 경찰행정학과의 합격 가능성에 대한 논의가 포함되어 있어 관련성이 높습니다. 그러나 일부 추가 정보는 원본 텍스트와의 관련성이 떨어질 수 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 이어집니다. 그러나 원본 텍스트와의 연결이 약간 느슨해질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 핵심 사실과는 다소 차이가 있습니다. 특히, 평균 영어 등급에 대한 정보는 원본 텍스트에 명시되어 있지 않습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 원본 텍스트와의 일관성 및 정확성에서 다소 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 의미가 적절하고 원본 텍스트의 맥락에 맞춰져 있습니다. 그러나 일부 추가 정보는 맥락에서 벗어날 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 다만, 일부 문장은 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C378" t="n">
+        <v>0.583322078774416</v>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 3.66이 나오는데요, 경찰행정학전공 농어촌 전형으로 지원했는데 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>3.66의 성적을 가지고 경찰행정학과 농어촌 전형에 지원하셨다면, 합격 가능성은 어느 정도일까요?
+먼저, 경찰행정학과의 정시 평균 영어 등급이 3.14로, 지원하신 성적이 이보다 약간 높으므로 영어 부분에서는 유리한 위치에 있습니다.
+다음으로, 농어촌 전형의 합격 기준을 살펴보겠습니다. 나군 학생부교과(농어촌학생전형)에서 동점자 처리기준은 다음과 같습니다:
+1. 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 전 과목 등급 평균 상위자
+2. 영어교과 전 과목 등급 평균 상위자
+3. 국어교과 전 과목 등급 평균 상위자
+이 중에서 1번 기준에 가장 가까워 보입니다. 하지만 정확한 합격 가능성은 지원자의 전체 성적과 경쟁률, 그리고 다른 지원자의 성적 분포를 고려해야 합니다.
+현재 정보로는 지원하신 성적이 평균보다 약간 높으므로, 동점자 처리 기준 1번에 해당하는 것은 가능성이 있습니다. 하지만 경쟁률이 높은 만큼, 확실한 합격을 보장받기 위해서는 다른 지원자의 성적 분포와 전체적인 경쟁 상황을 고려해야 합니다.
+따라서, 정확한 합격 가능성 판단을 위해서는 추가 정보를 확인하거나, 해당 대학의 입학처에 문의하는 것이 좋습니다. 더 자세한 정보를 얻으시려면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속하여 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 예비 25번의 순위가 높은 위치임을 언급하며, 합격 확률이 여러 요인에 따라 달라질 수 있다고 설명하고 있습니다. 그러나 원문에서 제시된 특정 학과 목록에 대한 언급이 없으므로, 일부 정보가 누락되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일관된 부분이 있지만, 원문에서 제시된 특정 학과 목록을 언급하지 않아 일관성이 떨어집니다. 또한, 합격 확률에 대한 설명이 원문과 다소 다르게 해석될 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 합격 확률에 영향을 미치는 여러 요인에 대해 설명하고 있습니다. 원문과 관련된 정보가 잘 반영되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인에 대한 설명이 명확하게 이어집니다. 그러나 원문과의 연결이 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 합격 확률에 영향을 미치는 요인에 대한 정확한 정보를 제공하고 있지만, 원문에서 제시된 특정 학과 목록이 누락되어 있어 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받습니다. 그러나 일관성과 사실성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 적절하게 부합하지만, 특정 학과 목록의 누락으로 인해 의미 전달이 완전하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C379" t="n">
+        <v>0.4011731020604076</v>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>정시 일반학생 전형으로 원서를 넣었는데 예비 25번이 나왔네요 붙을 확률 있을까요? 가능성 없겠죠?</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>25번의 순위는 동점자 처리 기준 중 상당히 높은 위치입니다. 그러나 붙을 확률은 여러 요인에 따라 달라질 수 있습니다.
+1. **수능 성적**: 수능 성적이 높다면, 동점자 처리 기준에서 앞쪽 순위를 차지할 가능성이 높아집니다.
+2. **면접 성적**: 면접에서도 좋은 성적을 받으면 동점자 처리에서 유리해질 수 있습니다.
+3. **서류 평가 결과**: 서류 평가에서도 우수한 점수를 받았다면, 이 역시 동점자 처리에 긍정적인 영향을 미칠 수 있습니다.
+따라서, 25번의 순위는 상당히 높은 위치이지만, 붙을 확률은 아직 결정되지 않았습니다. 수능 성적, 면접 성적, 서류 평가 결과 등을 종합적으로 고려해야 합니다. 
+추천되는 조치는 다음과 같습니다:
+- **수능 성적 확인**: 현재까지의 수능 성적을 다시 한 번 확인하고, 필요하다면 추가 학습을 진행하세요.
+- **면접 준비**: 면접 질문 공통문항을 통해 면접에 대비하세요. 특히 지원동기와 학업계획, 전공적합성 등에 대해 잘 준비해 두세요.
+- **서류 확인**: 제출된 서류가 정확하고 완벽한지 다시 한 번 점검하세요.
+이런 과정을 거치면 붙을 확률이 높아질 것입니다. 더 자세한 정보는 입학관리팀에 문의하시거나, 제공된 링크를 통해 확인해 보세요. https://ipsi. deu. ac. kr/main. do</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 법경찰행정학부에 대한 잘못된 정보를 포함하고 있습니다. 원본 텍스트에서는 법경찰행정학부가 존재하지 않는다고 명시하고 있지만, 생성된 응답에서는 해당 학부의 정원과 선발 인원에 대한 정보를 제공하고 있습니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 법경찰행정학부가 존재하지 않는다고 명시하고 있으나, 생성된 응답은 이 학부에 대한 정보를 제공하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 법경찰행정학부에 대한 정보를 제공하고 있지만, 원본 텍스트의 주제와는 관련이 없습니다. 원본 텍스트는 경찰행정학과의 성적에 대한 정보를 다루고 있으며, 법경찰행정학부에 대한 정보는 주제와 관련이 없습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있으나, 원본 텍스트와의 관련성이 부족하여 전체적인 논리적 흐름이 약간 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 법경찰행정학부에 대한 잘못된 정보를 포함하고 있습니다. 이는 정확성 점수를 낮추는 요인입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 매우 낮은 점수를 받았습니다. 전반적으로 원본 텍스트와의 일치성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 정보를 포함하고 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 어렵지 않지만, 내용의 부정확성으로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C380" t="n">
+        <v>0.7362111793790265</v>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>동의대학교 법경찰행정학부에 정시로 들어갈려면 평균 성적이 몇 정도 받으면 안정권이거나 문 닫고 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 법경찰행정학부의 정원 내 모집 인원은 40명이며, 나군 학생의 경우 일반 학생으로 지원할 때 2명이 선발되었습니다. 이는 해당 학과에서 나군 일반 학생들의 평균 성적을 어느 정도 받았는지에 대한 정보를 제공하지만, 정확한 점수를 예측하기 위해서는 더 많은 데이터가 필요합니다.
+일반적으로 동의대학교 법경찰행정학부의 경우 다음과 같은 특징이 있습니다:
+1. 경쟁률이 높아 평균 성적이 높은 편입니다.
+2. 정원 내 모집 인원이 40명으로, 나군 일반 학생에서 2명 선발되었으므로, 안정권을 유지하기 위해서는 평균 이상의 성적을 받는 것이 좋습니다.
+따라서, 동의대학교 법경찰행정학부에 정시로 들어갈려면 다음과 같은 점수를 목표로 설정하는 것이 좋습니다:
+- **안정권**: 평균 85점 이상
+- **문 닫고 들어가기**: 평균 90점 이상
+이러한 예측은 과거의 입학 성적과 경쟁률을 기반으로 한 추정이며, 실제 입시에서는 다양한 요인이 작용하기 때문에 정확한 점수를 보장할 수 없습니다. 따라서, 최선을 다해 준비하고, 여러 대안을 고려하는 것이 좋습니다.
+더 자세한 정보나 추가적인 질문이 있으시다면, https://ipsi. deu. ac. kr/main. do 에 접속하여 확인하시거나, 동의대학교 입학처에 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 동의대학교 보육가정상담학과에 대한 합격 가능성을 판단하기 어렵다고 언급하고 있지만, 원본 텍스트에서는 정시 등급이 5.33일 경우 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높다고 명시하고 있습니다. 따라서, 생성된 응답은 원본 텍스트의 사실과 상충합니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 정보와 일치하지 않으며, 원본에서 제공된 데이터에 대한 해석이 다릅니다. 원본 텍스트는 합격 가능성이 높다고 명시하고 있지만, 생성된 응답은 그 가능성을 부정하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 동의대학교와 관련된 정보를 제공하고 있으며, 추가적인 정보 요청을 제안하고 있습니다. 그러나 원본 텍스트의 핵심 내용인 합격 가능성에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며, 읽기 쉽게 작성되었습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 전달되고 있습니다. 그러나 원본 텍스트와의 연결이 약해 보입니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 합격 가능성에 대한 잘못된 해석을 제공합니다. 원본 텍스트의 데이터에 기반한 정확한 정보가 부족합니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 차원에서 원본 텍스트와의 일치성이 낮고, 사실성, 일관성, 정확성에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 의미와 다소 일치하지만, 합격 가능성에 대한 해석이 부적절하여 의미 전달이 완벽하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 원본 텍스트와의 관계가 명확하지 않아 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C381" t="n">
+        <v>0.5359737830328611</v>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>정시 산출 등급이 5.33인데 동의대학교 보육가정상담학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 데이터만으로는 동의대학교 보육가정상담학과에 정시로 합격할 확률을 정확히 판단하기 어렵습니다. 해당 학과의 경쟁률, 평균 등급 등의 정보가 필요합니다.
+데이터에서 동의대학교 관련 정보를 찾지 못했습니다. 더 자세한 정보를 얻기 위해서는 동의대학교의 공식 웹사이트 (https://ipsi. deu.ac.kr/main.do)를 방문하여 해당 학과의 모집요강을 확인하시거나, 대학 입학처에 문의하시는 것이 좋습니다.
+만약 다른 질문이 있으시다면 언제든지 물어보세요!</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 충원 합격자 발표 일정과 예비 번호에 대한 정보를 포함하고 있지만, "합격 가능성은 아직 높지 않습니다"라는 주장은 원본 텍스트의 내용과 다소 상충합니다. 원본에서는 예비 번호가 12번인 경우 합격 가능성이 아예 없는 것은 아니라고 명시하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 일부 정보를 반영하고 있지만, 합격 가능성에 대한 해석이 다릅니다. 원본 텍스트는 예비 번호가 12번인 경우 합격 가능성이 있다고 언급하는 반면, 생성된 응답은 가능성이 높지 않다고 하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 예비 번호와 합격 가능성에 대한 정보를 다루고 있습니다. 그러나 일부 추가 정보(예: 등록 절차 등)는 원본 텍스트와 직접적인 관련이 없으므로 완전한 점수를 주기 어렵습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 단계가 명확하게 연결되어 있습니다. 그러나 원본 텍스트와의 연결이 약간 느슨해 보일 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 사실을 일부 반영하지만, 합격 가능성에 대한 해석이 정확하지 않아 점수를 낮추었습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 그러나 사실성과 일관성에서 부족함이 있어 점수를 낮추었습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다. 그러나 일부 표현이 원본의 의미와 다르게 해석될 수 있어 완전한 점수를 주기 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장은 다소 복잡할 수 있어 점수를 낮추었습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C382" t="n">
+        <v>0.6370451366849896</v>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>동의대 보육가정상담 충원 합격 3차에서 예비 12번 받았는데 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 보육가정상담 충원 합격 3차에서 예비 12번을 받으셨다면, 합격 가능성은 아직 높지 않습니다. 하지만 최종 합격자 발표까지 시간이 있으므로, 계속해서 준비를 해보시는 것이 좋습니다.
+현재의 상황에서는 다음 단계로 진행해야 할 사항들이 있습니다:
+1. 홈페이지에서 개별 조회를 통해 자신의 위치를 확인합니다.
+2. 고지서를 출력하거나 입학관리팀에서 수령하여 등록장소에 대한 정보를 얻습니다.
+3. 학교 지정은행으로 등록금을 납부합니다.
+합격 가능성에 영향을 미치는 요인들 중 일부는:
+- 면접 성적
+- 서류 평가 점수
+- 충원 합격자 발표 순위
+따라서, 최종 결과를 확인하기 위해서는 합격자 발표까지 기다려야 합니다. 만약 추가로 정보가 필요하시다면, 입학관리팀에 문의해보시는 것이 좋습니다.
+더 궁금하신 점이 있으시면 https://ipsi. deu. ac. kr/main. do 에서 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 4.75라는 성적이 높은 점수라고 언급하고 있지만, 유아교육학과의 평균 성적이 4.18이라는 사실을 간과하고 있습니다. 또한, 경쟁률에 대한 정보는 제공되었으나, 원본 텍스트에서 제시된 데이터와 일치하지 않는 부분이 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 유아교육학과에 대한 정보와 경쟁률을 언급하고 있지만, 원본 텍스트의 내용과 일부 상충하는 부분이 있습니다. 예를 들어, 유아교육학과에 지원하기 어려운 성적이라는 원본의 결론과는 다르게 긍정적인 가능성을 제시하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 주제와 관련된 정보를 제공하고 있으나, 원본 텍스트의 주요 포인트인 유아교육학과의 지원 가능성에 대한 명확한 결론을 다루지 않고 있습니다. 그러나 전반적으로 관련된 내용을 포함하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트의 결론과 다소 상충하는 점이 있어 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 일부 사실에 대한 정확성이 떨어지며, 특히 유아교육학과에 대한 지원 가능성에 대한 정보가 원본 텍스트와 일치하지 않습니다. 
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 여러 차원에서 중간 정도의 품질을 보이고 있으며, 사실성과 일관성에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 의미적으로 적절하며, 주제와 관련된 내용을 잘 전달하고 있습니다. 그러나 원본 텍스트의 결론과는 다소 다르게 해석되고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 언어로 작성되어 있습니다. 다만, 일부 내용이 원본과 상충하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C383" t="n">
+        <v>0.7732895538852934</v>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>정시 성적으로 4.75 나오는데 가능할까요? 그리고 유아교육학과는 이 성적으로 어렵겠죠?</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>4.75라는 수능 4개 영역 등급은 상당히 높은 점수입니다. 평균치와 비교하면 표준 편차가 0.24로 매우 낮은 범위에 속해 있어 이 성적은 대체적으로 좋은 성적이라고 할 수 있습니다.
+유아교육학과의 경우, 지원 인원이 13명이고 모집 인원이 4명으로 경쟁률이 3.25입니다. 평균치와 표준 편차를 고려하면 이 성적이 충분히 좋은 점수일 것입니다. 그러나 유아교육학과는 특히 전공적합성에 대한 요구가 높기 때문에, 학업역량 외에도 자신의 진로 탐색 과정과 지원 동기에 대해 잘 준비해야 합니다.
+이 성적으로 유아교육학과를 지원한다면 경쟁률을 고려할 때 충분히 가능성이 있습니다. 그러나 최종 결정은 입시 전략과 개인의 준비 상태에 따라 달라질 수 있으므로, 정확한 정보는 해당 대학의 입학처에서 확인하는 것이 좋습니다.
+더 궁금하신 점이 있다면 https://ipsi. deu. ac. kr/main. do를 참조하거나 직접 대학 입학처와 연락을 취하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 보육가정상담학과의 정시 환산등급 평균 및 표준편차에 대한 정보가 부족하다고 언급하고 있으며, 이는 사실입니다. 그러나 원본 텍스트에서 제공된 정보와 비교했을 때, 합격 가능성에 대한 명확한 판단을 내리지 못하고 여러 조건을 제시하는 방식으로 다소 모호하게 표현되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 일부 반영하고 있지만, 추가적인 정보가 필요하다는 점에서 일관성이 떨어집니다. 원본 텍스트는 4.16의 등급으로 합격 가능성이 높다고 명확히 언급하고 있으나, 생성된 응답은 여러 조건을 제시하며 불확실성을 강조하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 보육가정상담학과에 대한 추가 정보를 요청하는 내용이 포함되어 있습니다. 그러나 원본 텍스트의 핵심 메시지인 합격 가능성에 대한 직접적인 언급이 부족하여 점수를 다소 낮게 평가했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있는 부분이 있어 완벽한 유창성에는 미치지 못합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트의 결론과는 다소 다른 방향으로 전개되어 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 바탕으로 하고 있지만, 합격 가능성에 대한 명확한 판단을 내리지 않고 여러 조건을 제시하는 방식으로 정확성이 떨어집니다. 원본 텍스트의 명확한 결론을 반영하지 못하고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 원본 텍스트의 핵심 메시지를 충분히 반영하지 못하고 있습니다. 따라서 전반적인 품질이 다소 낮게 평가되었습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하고 있습니다. 그러나 원본 텍스트의 명확한 결론을 반영하지 못한 점에서 약간의 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달되고 있습니다. 다만, 일부 조건이 추가되어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C384" t="n">
+        <v>0.5718227949243588</v>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>제가 동의대 정시 환산등급이 4.16인데 보육가정상담학과 일반학생전형으로 추합까지 생각해서 합격이 될까요?</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>4.16의 등급을 가지고 보육가정상담학과 일반학생전형에 지원하시려는 계획은 좋은데, 확실한 답변을 드리기 위해서는 몇 가지 정보가 필요합니다:
+1. **보육가정상담학과의 정시 환산등급 평균 및 표준편차**: 현재 제공된 데이터에는 보육가정상담학과의 정시 환산등급 평균 및 표준편차가 포함되어 있지 않습니다. 이 정보를 확인해야 합니다.
+2. **지원 인원 및 경쟁률**: 지원 인원이 많고 경쟁률이 높다면, 4.16 등급으로 충분히 합격할 수 있는 확률은 낮을 수 있습니다.
+3. **충원 합격자 평균 환산등급**: 이전에 해당 학과에서 충원된 합격자의 평균 환산등급을 확인하면, 4.16 등급으로 충분히 합격할 수 있는지 판단할 수 있습니다.
+위의 정보를 바탕으로 추정해보면:
+- 만약 보육가정상담학과의 정시 환산등급 평균이 4.20 이상이고 표준편차가 작다면, 4.16 등급은 경쟁률이 높을 가능성이 있습니다.
+- 반대로, 만약 평균이 4.15 이하이고 표준편차가 크다면, 4.16 등급으로 충분히 합격할 수 있는 가능성도 있습니다.
+따라서, 정확한 답변을 드리기 위해서는 보육가정상담학과의 정시 환산등급 평균 및 표준편차와 지원 인원, 경쟁률 등을 확인해야 합니다. 만약 해당 정보를 얻지 못한다면, "https://ipsi. deu. ac. kr/main. do" 링크를 통해 공식 홈페이지에서 필요한 정보를 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 소프트웨어융합학과가 정시로 지원할 수 없다는 원문과 상반된 정보를 제공하고 있습니다. 소프트웨어공학부에 대한 정시 지원 조건을 언급하고 있지만, 이는 사실과 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 완전히 모순되는 내용을 포함하고 있습니다. 원문에서는 정시 지원이 불가능하다고 명시하고 있는데, 생성된 응답은 정시 지원을 위한 조건을 제시하고 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 관련이 없으며, 주제와도 맞지 않습니다. 원문이 정시 지원 불가능성을 언급하는 반면, 생성된 응답은 정시 지원 조건에 대한 정보를 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부정확성으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원문과의 관계가 부적절하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 완전히 다르며, 사실과 일치하지 않습니다. 소프트웨어융합학과의 정시 지원 가능성에 대한 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 전혀 없으며, 주제와도 맞지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 내용의 부정확성으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C385" t="n">
+        <v>0.3755293717151994</v>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시로 들어갈 수 있나요? 된다면 평균 몇 등급정도 받아야 하나요?</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어공학부를 정시로 지원하려는 경우, 평균 4.12등급 정도의 수능 점수를 받아야 합니다. 이는 해당 학과에서 보고 있는 수능 4개 영역 등급의 평균 점수가므로, 이를 참고하시면 좋을 것 같습니다.
+추가적으로, 지원 시 고려해야 할 요소들은 다음과 같습니다:
+1. **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 이 부분의 평균은 450.71입니다. 따라서 이 점수를 넘는 수치를 받아야 합니다.
+2. **영어 등급**: 평균은 3.30이며, 이 역시 고려해야 할 요소입니다.
+따라서, 소프트웨어공학부 정시 지원을 위해서는 수능 4개 영역 등급의 평균이 4.12 이상이고, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합이 450.71 이상, 그리고 영어 등급이 3.30 이상을 받아야 합니다.
+상세한 정보는 각 대학의 입시 홈페이지를 참조하시거나, 해당 대학에 직접 문의하시는 것이 좋습니다. "https://ipsi. deu. ac. kr/main. do" 를 통해 더 자세한 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 내용과 관련이 없으며, 소프트웨어융합학과의 평가 방식에 대한 정확한 정보를 제공하지 않습니다. 원본 텍스트는 서류 평가와 면접 고사에 대한 구체적인 정보를 포함하고 있지만, 생성된 응답은 면접의 일반적인 평가 기준에 대한 설명으로 대체되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 주제를 다루고 있습니다. 원본 텍스트는 특정 학과의 평가 방식에 대한 정보인 반면, 생성된 응답은 일반적인 면접 평가에 대한 내용으로 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 질문에 대한 직접적인 답변을 제공하지 않습니다. 원본 텍스트는 소프트웨어융합학과의 평가 방식에 대한 정보인데, 생성된 응답은 다른 주제를 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 원본 텍스트와의 관련성이 떨어지기 때문에 전체적인 맥락에서의 유창성은 낮아질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 없기 때문에 전체적인 일관성은 떨어집니다. 주제가 다르기 때문에 논리적인 흐름이 원본 텍스트와 연결되지 않습니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보가 포함되어 있습니다. 원본 텍스트의 구체적인 내용이 무시되고 일반적인 면접 평가에 대한 설명으로 대체되었습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원본 텍스트와의 관계가 전혀 없기 때문에 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 주제가 완전히 다릅니다. 따라서 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있지만, 원본 텍스트와의 관련성이 없기 때문에 전체적인 이해도는 떨어질 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C386" t="n">
+        <v>0.3566068379154086</v>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>소프트웨어 융합과 면접 점수보다 세특 내용을 많이 보시나요? 따로 준비해야하는 서류 존재하나요?</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>一般来说，面试评分和特长内容都会被仔细评估。面试主要考察学生的沟通能力、逻辑思维能力和对所申请专业的兴趣等。特长部分则会评估学生在特定领域的实际经验和成就。
+对于特长内容的准备，建议如下：
+1. 确保提供的信息真实可靠：不要夸大事实或编造经历。
+2. 详细描述你的特长活动及其成果：例如，在软件开发项目中担任的角色、取得的成绩等。
+3. 准备具体的例子来支持你的陈述：比如完成的一个具体项目和你在这个项目中的贡献。
+至于是否需要额外准备的文件，根据提供的信息来看：
+- 对于“나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형)”和“나군 학생부종합(조기취업형계약학과전형)”，提交的文件主要是学生证、成绩单等，不需要额外准备特长相关的文件。
+- 但是，在面试中可能会被问及特长内容，因此提前准备好相关例子是非常有帮助的。
+如果还有其他具体问题或需要进一步的帮助，请告诉我！</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부의 정보와 중어중국학과의 정보를 혼합하여 제공하고 있습니다. 원본 텍스트는 소프트웨어공학부에 대한 정보만을 제공하고 있으며, 중어중국학과에 대한 정보는 원본 텍스트와 관련이 없습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 소프트웨어공학부와 중어중국학과를 비교하고 있어 일관성이 부족합니다. 원본 텍스트는 소프트웨어공학부에 대한 정보만을 다루고 있으며, 중어중국학과에 대한 언급은 원본과 일치하지 않습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 중어중국학과에 대한 정보는 원본 텍스트의 핵심 주제와는 관련이 없습니다. 따라서 관련성 점수는 중간 정도입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 주제를 다루고 있지만, 소프트웨어공학부와 중어중국학과를 혼합하여 설명하고 있어 논리적인 흐름이 약간 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있습니다. 특히 중어중국학과에 대한 정보는 원본 텍스트와 관련이 없으므로 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 특히 사실성과 일관성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트와의 관련성이 떨어지는 부분이 있어 점수가 중간입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어지고 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C387" t="n">
+        <v>0.7263884578096487</v>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.08인데 동의대학교 소프트웨어공학부  최초합격자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 동의대학교 인문사회과학대학 중어중국학과의 최초합격자를 위한 정확한 성적 기준을 알 수 없습니다. 동의대학교 소프트웨어공학부와 중어중국학과는 다른 단과대학이므로 비교가 어렵습니다.
+중어중국학과의 경우, 지원 인원 39명 중 모집 인원 24명으로 경쟁률은 약 1.63입니다. 평균 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합은 281.29였습니다.
+정시 성적이 4.08이라면, 이는 수능 4개 영역 등급의 평균치보다 높습니다. 그러나 정확한 최소합격 기준을 알기 위해서는 해당 단과대학 소프트웨어공학부의 최초합격자들의 성적 분포를 확인해야 합니다.
+따라서, 동의대학교 인문사회과학대학 중어중국학과의 최초합격자를 위한 정확한 성적 기준을 알기 위해서는 해당 단과대학 소프트웨어공학부의 최초합격자들의 성적 분포를 확인하거나, 동의대학교 입학처에 직접 문의하는 것이 가장 좋습니다.
+더 자세한 정보를 얻으시려면 https://ipsi. deu. ac. kr/main. do 를 참조하시거나, 동의대학교 입학처로 문의해보세요.</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보를 제공하지 않고 있으며, 소프트웨어공학부에 대한 정보로 잘못된 내용을 포함하고 있습니다. 또한, 경쟁률과 표준 변환 점수에 대한 정보는 원본 텍스트에 명시되어 있지 않으므로 사실성이 떨어집니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 소프트웨어융합학과에 대한 정보만을 제공하고 있으며, 소프트웨어공학부에 대한 언급은 없습니다. 이로 인해 정보의 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 소프트웨어융합학과에 대한 질문에 대해 소프트웨어공학부의 정보를 제공하고 있어 관련성이 떨어집니다. 그러나 일부 내용은 지원자의 점수와 관련된 정보로서 어느 정도 관련성을 가지고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 요소를 나열하고 있으나, 원본 텍스트와의 연결이 부족하여 논리적인 흐름이 약간 떨어집니다. 정보가 분산되어 있어 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보(소프트웨어공학부에 대한 언급 등)를 포함하고 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받고 있으며, 관련성도 부족하여 다차원적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 맥락과는 다소 어긋나지만, 지원자의 점수와 관련된 정보는 포함하고 있어 의미적으로 적절한 부분도 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되어 있습니다. 그러나 일부 정보가 원본 텍스트와 관련이 없기 때문에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C388" t="n">
+        <v>0.5892924950599467</v>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시 평균 5등급으로 여기 올 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어공학부를 지원할 때, 평균 5등급은 충분히 경쟁력을 갖춘 점수입니다. 하지만 정확한 확률을 예측하기 위해서는 몇 가지 요소를 고려해야 합니다:
+1. **경쟁률**: 소프트웨어공학부의 경쟁률이 4.87으로 높기 때문에, 평균 5등급만으로 충분히 합격할 확률은 낮을 수 있습니다.
+2. **표준 변환 점수**: 지원자의 표준 변환 점수가 평균 330.11이므로, 이는 경쟁력을 갖춘 점수입니다. 하지만 다른 지원자들의 표준 변환 점수와 비교하여 어느 정도 위치에 있는지 확인해야 합니다.
+3. **영어 등급**: 평균 3.30의 영어 등급은 중간 수준이며, 이 역시 경쟁력을 갖춘 점수입니다.
+4. **전공적합성 및 기타 요인**: 학생부 교과 성적, 면접 결과 등 다른 평가 요소들도 고려됩니다.
+따라서, 평균 5등급으로는 충분히 경쟁력을 갖추지만, 확실한 합격을 보장받기 위해서는 더 높은 점수를 목표로 설정하거나, 지원 전에 해당 대학의 입시 정보 페이지를 확인하여 자세한 요구 사항을 파악하는 것이 좋습니다. 필요하다면, 입시 상담 센터나 선배들의 조언을 구해보는 것도 도움이 될 수 있습니다.
+더 자세한 정보를 얻기 위해서는 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 페이지를 방문하여 확인하시거나, 대학 입시 상담 센터에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 신소재공학과의 평균 점수와 표준 편차에 대한 정보를 제공하지만, 원본 텍스트에 명시된 최초합격자와 최종등록자의 평균 등급에 대한 정보는 누락되어 있습니다. 또한, 평균 점수와 표준 편차는 원본 텍스트에 포함되어 있지 않으므로, 이 정보는 사실이 아닙니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 평균 점수와 표준 편차에 대한 정보는 원본 텍스트에 없으므로 일관성이 떨어집니다. 또한, 합격 가능성에 대한 언급이 원본 텍스트의 결론과 다소 상충할 수 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문에 대한 분석을 제공하고 있으며, 신소재공학과의 경쟁률과 지원자 점수 분포에 대한 정보를 포함하고 있어 관련성이 높습니다. 그러나 원본 텍스트의 핵심 정보가 누락되어 있어 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 이어집니다. 그러나 원본 텍스트와의 연결이 약간 부족하여 완전한 일관성은 아닙니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 추가된 평균 점수와 표준 편차는 사실이 아니므로 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 일부 정보는 유용하지만, 원본 텍스트의 핵심 정보를 누락하고 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 맥락에 맞는 의미를 전달하고 있으며, 전반적으로 적절한 의미를 가지고 있습니다. 그러나 원본 텍스트의 정보와 다소 다를 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장은 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C389" t="n">
+        <v>0.6435245964057574</v>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.28인데 동의대학교 신소재 공학부에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>4.28이라는 점수를 가지고 동의대학교 신소재공학과에 합격할 수 있는지 확정적으로 말씀드리기는 어렵습니다. 하지만, 제공된 데이터를 바탕으로 분석해보겠습니다.
+신소재공학과의 지원자들의 평균 점수가 271.64이고 표준 편차가 19.52입니다. 이는 지원자의 점수들이 비교적 일정한 범위 내에서 분포되어 있다는 것을 의미합니다.
+당신의 점수가 평균보다 약간 높은 편이므로, 경쟁률과 지원자들의 점수 분포를 고려할 때 합격 가능성은 있습니다. 하지만, 신소재공학과는 모집 인원이 56명이고 지원자가 81명이라는 점을 감안하면 경쟁률이 높습니다.
+따라서, 당신의 점수가 평균보다 약간 높더라도 합격 확률은 낮지 않지만, 여전히 높은 경쟁률 때문에 안심할 수는 없습니다. 동의대학교의 입학사정관이 제공하는 정보나, 동문들의 경험을 참고하시거나, 필요하다면 입학처에 직접 문의하시는 것이 좋습니다.
+더 자세한 정보를 얻기 위해서는 https://ipsi. deu. ac. kr/main. do 를 방문하여 확인해보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 자기소개서가 필수 항목이 아니라는 점을 정확하게 반영하고 있습니다. 그러나 "선택 사항에 가깝다"는 표현은 다소 모호할 수 있으며, 자기소개서가 필요 없다는 점을 명확히 하지 않아서 약간의 혼란을 줄 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 응답은 원문과 일치하는 부분이 있지만, "선택 사항에 가깝다"는 표현은 원문과의 일관성을 떨어뜨립니다. 원문은 자기소개서가 필요 없다고 명확히 언급하고 있기 때문에, 이 부분에서 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문의 주제와 관련된 정보를 잘 제공하고 있으며, 자기소개서의 필요성에 대한 명확한 설명을 포함하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 "선택 사항에 가깝다"는 표현이 다소 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 원문에서 제공된 정보와 대체로 일치하지만, "선택 사항에 가깝다"는 표현이 정확성을 약간 떨어뜨립니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 응답은 여러 차원에서 좋은 품질을 보여주지만, 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 응답은 원문의 의미와 맥락에 잘 맞지만, "선택 사항에 가깝다"는 표현이 다소 애매하여 의미 전달에 약간의 혼란을 줄 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽지만, 일부 표현이 다소 모호하여 완전한 명확성을 제공하지는 않습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C390" t="n">
+        <v>0.5685200156261775</v>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>수능 일반학생전형으로 넣으려고 하는데 자기소개서 써야하나요?</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 수능 일반학생전형에서는 자기소개서 작성은 필수 항목이 아닙니다. 전형 요소 중 서류 평가 비율이 높으므로, 지원자의 학력사항, 성적 등 관련 서류를 잘 준비하는 것이 중요합니다.
+자기소개서는 선택 사항에 가깝습니다. 하지만 만약 작성한다면, 지원자의 인성, 가치관, 학업 목표 등을 담아서 동의대학교와의 적합성을 강조하는 내용을 포함시킬 수 있습니다.
+자세한 정보가 필요하시다면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 수능 점수와 관련된 정보와 추가 모집에 대한 요인을 잘 설명하고 있으며, 원본 텍스트의 주요 내용을 반영하고 있습니다. 그러나 일부 세부 사항이 원본 텍스트와 일치하지 않거나 추가적인 정보가 필요할 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 특정 세부 사항에서 차이가 있습니다. 예를 들어, 경쟁률에 대한 구체적인 예시가 추가되었으나, 원본 텍스트의 맥락과 완전히 일치하지는 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 수능 점수와 추가 모집에 대한 정보를 잘 다루고 있습니다. 질문에 대한 직접적인 답변을 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인이 명확하게 설명되고 있습니다. 그러나 일부 부분에서 더 매끄러운 연결이 필요할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 추가적인 정보도 제공하고 있습니다. 그러나 일부 세부 사항에서 정확성이 떨어질 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받았습니다. 그러나 일부 세부 사항에서 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 일부 표현에서 약간의 차이가 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C391" t="n">
+        <v>0.6364614369930873</v>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>동의대 수능 정시 산출로 4.5나왔는데 추가모집이든 해서 들어갈수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>4.5라는 점수는 상당히 좋은 성적입니다. 하지만 추가 모집에 들어가는 것은 여러 요인들이 작용합니다.
+1. **경쟁률**: 각 단과대학 및 모집단위별 경쟁률이 매우 중요합니다. 예를 들어, 의료보건생활대학의 식품영양학과는 2.17이라는 비교적 낮은 경쟁률을 보이고 있지만, 한의과대학의 한의예과(수학&lt;미적분/기하&gt;)는 8.00이라는 높은 경쟁률을 보입니다.
+2. **모집인원 및 지원인원**: 모집인원이 적고 지원인원이 많은 경우 경쟁률이 높아지며, 반대로 모집인원이 많고 지원인원이 적은 경우에는 경쟁률이 낮아집니다. 예를 들어, 공과대학의 기계공학과, 로봇자동화공학과, 자동차공학과는 각각 77명을 모집하며 67명이 지원하여 경쟁률이 0.87으로 매우 낮습니다.
+3. **성적 및 평균점수**: 성적이 높고 해당 단과대학의 평균 점수가 낮다면 더 좋은 입학 확률을 가질 수 있습니다. 예를 들어, 공과대학의 한의예과(수학&lt;확률과통계&gt;)는 396.29라는 비교적 높은 평균점수를 보이고 있지만, 한의예과(수학&lt;미적분/기하&gt;)는 538.33이라는 매우 높은 평균점수를 보입니다.
+4. **추가모집**: 추가 모집에 대한 정보도 중요합니다. 일부 단과대학에서는 추가 모집을 통해 더 많은 학생들을 수용할 수 있습니다.
+따라서, 4.5라는 점수로는 어느 정도의 확률이 있지만, 정확한 답변을 위해서는 해당 대학 및 단과대학별 경쟁률, 모집인원, 지원인원 등을 확인해야 합니다. 더 자세한 정보를 얻기 위해서는 "https://ipsi. deu. ac. kr/main. do"로 접속하여 확인해 보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 신소재공학과의 평균 등급에 대한 정보를 제공하고 있으며, 2등급 이상이어야 한다고 언급하고 있습니다. 그러나 원본 텍스트에서 제공된 평균 등급(영어 5.06, 수능 5.78)과는 다소 차이가 있어, 정확한 수치는 반영되지 않았습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 평균 등급에 대한 구체적인 수치가 누락되어 있어 일관성이 떨어집니다. 원본 텍스트의 평균 등급을 명시하지 않고 2등급 이상이라고만 언급한 점에서 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 신소재공학과의 입학 요건에 대한 질문에 직접적으로 답변하고 있으며, 관련된 정보를 제공하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 원본 텍스트와의 연결이 약간 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 신소재공학과의 입학 요건에 대한 정보를 제공하지만, 원본 텍스트의 평균 등급 수치와는 차이가 있어 정확성에서 약간의 부족함이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 관련성, 유창성, 일관성 등에서 좋은 점수를 받고 있습니다. 그러나 일부 정보의 정확성이 떨어져 점수가 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하고 있습니다. 그러나 평균 등급에 대한 구체적인 수치가 누락되어 있어 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다. 다만, 일부 정보가 누락되어 있어 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C392" t="n">
+        <v>0.5698874634466677</v>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재 공학부는 정시 몇 등급이면 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>2024학년도에 동의대학교 신소재공학과(신소재공학과, 고분자나노공학과)가 모집됩니다. 이 학과는 정시모집군 가로 그룹에 속합니다.
+따라서 동의대학교 신소재 공학부를 정시로 지원하려면 2등급 이상이어야 합니다. 
+하지만 정확한 등급 기준은 매년 변경될 수 있으므로, 최신 정보는 https://ipsi. deu.ac.kr/main.do 웹사이트에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 작년 신소재공학과의 평균 점수에 대한 정보를 제공하지만, 447점이 작년 평균 점수보다 높다는 사실을 명확히 반영하지 않고 있습니다. 또한, "확실한 가능성을 판단하기 어렵다"는 표현은 원문에서의 긍정적인 가능성과 상충합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 제시된 정보와 일부 일치하지만, "확실한 가능성을 판단하기 어렵다"는 문구는 원문에서의 긍정적인 가능성과 모순됩니다. 따라서 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 정보를 제공하고 있지만, 원문에서의 핵심 메시지인 합격 가능성에 대한 긍정적인 언급이 부족합니다. 그럼에도 불구하고 관련된 정보는 포함되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 연결되어 있습니다. 그러나 원문과의 차이로 인해 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원문에서의 긍정적인 가능성을 충분히 반영하지 못하고 있습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 그러나 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 주제와 관련된 정보를 제공합니다. 그러나 원문에서의 긍정적인 가능성을 충분히 반영하지 못한 점이 아쉽습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C393" t="n">
+        <v>0.6834956241854346</v>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>제가 동의대학교 정시 표준점수가 447점으로 환산되는데 작년 신소재공학과 표점이 447점보다 1점 정도 위더라구요 (최종 평균)가능성은 있을까요?</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집에서 특정 단과대학 및 학과별 경쟁률과 충원 합격 점수를 고려할 때, 작년에 비해 표준점수가 약간 변동될 수 있습니다. 하지만 작년 신소재공학과의 최종 평균 점수가 447점보다 약간 높았다는 정보만으로는 확실한 가능성을 판단하기 어렵습니다.
+현재 제공된 데이터를 바탕으로, 작년에 비해 표준점수가 약간 낮아졌을 경우에도 충원 합격이 가능한 점수 범위 내에 있을 수 있습니다. 그러나 이는 경쟁률과 지원 인원 등 다양한 요인에 따라 달라질 수 있으므로, 최종 결정은 입학사정관의 평가 결과를 기다려야 합니다.
+추천드리면, 동의대학교의 입학사정관에게 직접 문의하거나, 제공된 데이터와 함께 작년과 현재의 상황을 비교하여 분석하는 것이 좋습니다. 또한, 학교 홈페이지나 입학처에 연락하여 자세한 정보를 얻는 것도 도움이 될 것입니다.
+더 궁금하신 점이 있으시면 https://ipsi. deu. ac. kr/main. do 를 참조하시거나, 직접 동의대학교 입학처와 문의해보세요.</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 신소재공학부의 수능 반영 영역 및 비율에 대한 정보를 제공하고 있지만, 원본 텍스트에서 제공된 평균 성적 데이터와 비교할 때 일부 정보가 누락되거나 다르게 해석될 수 있습니다. 예를 들어, 원본 텍스트는 평균 성적에 대한 구체적인 수치를 제공하지만, 생성된 응답은 이러한 수치를 명시하지 않고 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 영어 점수와 관련된 부분에서 다소 모호한 설명이 있습니다. 원본 텍스트는 귀하의 성적이 평균 성적과 비교했을 때 다소 높다고 명시하고 있지만, 생성된 응답은 상대적으로 낮아질 수 있다고 언급하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 신소재공학부의 합격 가능성에 대한 정보를 제공합니다. 그러나 원본 텍스트의 평균 성적 데이터와 직접적으로 연결되지 않는 부분이 있어 약간의 관련성 저하가 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 일부 부분에서 정보의 흐름이 다소 불명확할 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 비교할 때 일부 정확성이 떨어지는 부분이 있습니다. 특히, 성적 변환에 대한 설명이 원본 텍스트의 평균 성적과 일치하지 않아서 정확성 점수가 낮아졌습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 사실성과 일관성에서 다소 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 전반적으로 의미 전달이 잘 이루어졌습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 정보 전달이 이루어졌습니다. 그러나 일부 문장이 복잡하게 구성되어 있어 약간의 이해도 저하가 있을 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C394" t="n">
+        <v>0.5961534803358286</v>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 현재로선 4.3등급대고 동의대식 성적산출하면 4.1~4.2정도 나올거같은데 신소재공학부 일반학생전형 붙을수있을까요?</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>4.3 등급의 수능 영어 점수가 4.1~4.2 정도로 변환되면, 정시 성적이 상대적으로 낮아집니다. 그러나 신소재공학부 일반학생전형에 붙는 것은 여러 요인에 따라 결정됩니다.
+신소재공학부 일반학생전형의 수능 반영 영역 및 잔영 비율은 다음과 같습니다:
+- 국어: 25%
+- 수학(미적분 또는 기하): 25%
+- 영어: 25%
+- 탐구 (사회탐구 또는 과학탐구 - 2개 과목 합): 25%
+이 중에서 영어 점수가 낮아지면, 전체 성적이 저하될 수 있습니다. 그러나 다른 영역의 성적과 면접 등 기타 요소가 좋은 경우에도 합격 가능성은 존재합니다.
+따라서, 정확한 결과를 알기 위해서는:
+1. 현재의 성적을 기반으로 예상 점수를 계산해 보세요.
+2. 해당 전형의 최저 합격 점수를 확인하세요.
+3. 면접 준비를 철저히 하세요.
+만약에 정확한 정보가 필요하다면, 해당 대학의 입시 홈페이지나 관계부서에 문의하시는 것이 좋습니다. "https://ipsi. deu. ac. kr/main. do" 를 참조해 보세요.</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 동의대학교 인공지능학과의 수능 성적에 대한 구체적인 정보를 제공하지 않고, 다른 학과의 성적 정보를 언급하고 있습니다. 이는 원본 텍스트의 핵심 정보를 누락하고 있으며, 잘못된 정보로 이어질 수 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일치하지 않으며, 인공지능학과의 성적에 대한 정보가 아닌 다른 학과의 성적을 언급하고 있습니다. 이는 일관성을 떨어뜨립니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 동의대학교 인공지능학과에 대한 질문에 대한 답변으로는 적절하지 않지만, 다른 학과의 성적 정보를 제공하여 어느 정도 관련성을 유지하고 있습니다. 그러나 주제에서 벗어난 정보가 포함되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어집니다. 다른 학과의 성적 정보를 언급하면서 주제가 흐트러졌습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 정확한 정보를 제공하지 않으며, 다른 학과의 성적을 언급함으로써 정확성을 떨어뜨립니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 특히 사실성과 일관성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분이 있지만, 주제와 관련된 정보가 아닌 다른 학과의 성적을 언급함으로써 의미의 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 주제와의 관련성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C395" t="n">
+        <v>0.741246521375462</v>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>동의대 인공지능학과 수능 일반학생전형으로 가고싶어요 성적좀 알려주세요</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 인공지능학과에 대한 정확한 수능 성적이 제공되지 않았습니다. 하지만, 동의대학교 인문사회과학대학의 다른 학과들에 대한 성적 정보를 참고할 수 있습니다.
+예를 들어, 인문사회과학대학 국어국문학과의 경우:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 303.44
+- 영어 등급 평균: 3.88
+이와 같은 수준의 성적을 기대할 수 있습니다. 하지만, 인공지능학과는 다른 학과들에 비해 더 높은 점수를 요구할 수 있으므로, 실제 모집단위별로 정확한 점수를 확인하시기 바랍니다.
+더 자세한 정보를 얻으시려면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 방문해보세요.</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 동의대학교의 정시 성적에 대한 구체적인 정보를 제공하지 않고, 일반적인 절차와 조언을 제시하고 있습니다. 원본 텍스트에서 제공된 구체적인 학과와 성적 정보를 무시하고 있어 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용과 일관성이 없습니다. 원본 텍스트는 5.27 성적으로 충원 합격이 가능한 학과를 명확히 나열하고 있지만, 생성된 응답은 그러한 정보를 제공하지 않고 일반적인 조언만을 포함하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 구체적인 정보가 부족하여 관련성이 떨어집니다. 원본 텍스트에서 요구하는 정보에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 내용의 적절성에 따라 점수가 다를 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 일관된 흐름을 가지고 있지만, 원본 텍스트의 정보와 연결되지 않아 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 구체적인 사실을 반영하지 않으며, 정보의 정확성이 낮습니다. 원본 텍스트에서 제공된 구체적인 학과와 성적 정보를 무시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 낮은 점수를 받습니다. 사실성, 일관성, 정확성 모두 부족하여 전체적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절하지만, 원본 텍스트의 맥락과는 다소 동떨어져 있습니다. 원본 텍스트의 요구에 대한 적절한 답변이 부족합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 이해하기 쉬운 언어로 작성되었으나, 정보의 부족으로 인해 사용자가 원하는 정보를 얻기 어려울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C396" t="n">
+        <v>0.5665934119686051</v>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>동의대 정시 성적으로 5.27인데 이 성적으로 추합 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 특정 대학과 단과대학, 모집단위별 정원 내 모집 인원 및 각 군별 지원자 수를 확인할 수 없습니다. 따라서 현재의 성적(5.27)으로 어느 학교나 단과대학, 모집단위에서 추합 가능한지 확정적으로 말씀드리기는 어렵습니다.
+추후에 추합 가능성을 확인하려면 다음과 같은 절차를 따르시는 것이 좋겠습니다:
+1. **모집요강 확인**: 해당 대학의 공식 웹사이트에서 최신 모집요강을 확인하세요.
+2. **정원 내/외 모집 인원 확인**: 각 단과대학, 모집단위별 정원 내/외 모집 인원을 파악하십시오.
+3. **각 군별 지원자 수 확인**: 가군, 나군, 다군 등 각 군별 지원자 수를 파악하십시오.
+이러한 정보들을 바탕으로 자신의 성적과 추합 가능성을 판단하시면 됩니다. 만약 더 자세한 정보가 필요하다면, 해당 대학의 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다. 또한 "https://ipsi. deu. ac. kr/main. do" 링크를 통해 추가적인 정보를 얻으실 수 있습니다.
+이런 절차를 거치시면 더 정확한 판단을 할 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부의 평균 등급에 대한 구체적인 정보를 제공하지 않으며, 수능 4개 영역 등급의 평균을 4.07로 언급하고 있지만, 이는 원본 텍스트의 4.49와 일치하지 않습니다. 따라서 일부 사실이 부정확합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 평균 등급에 대한 수치가 다르기 때문에 일관성이 떨어집니다. 또한, 원본 텍스트에서 제시된 합격 가능성에 대한 명확한 판단을 제공하지 않고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문에 대한 답변을 제공하고 있으며, 합격 가능성을 판단하기 위한 여러 요소를 고려하고 있습니다. 그러나 원본 텍스트의 구체적인 데이터에 대한 언급이 부족하여 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 원본 텍스트와의 연결이 약간 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 평균 등급에 대한 수치가 원본 텍스트와 다르기 때문에 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 맥락에 적절하게 의미를 전달하고 있으며, 전반적으로 적절한 내용입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장은 다소 복잡할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C397" t="n">
+        <v>0.6583508481153814</v>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>정시 성적 4.2인데 동의대학교 소프트웨어공학부 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>4.2라는 성적이 동의대학교 소프트웨어공학부에 충분한지 판단하기 위해서는 해당 대학의 입학사정관이나 전형요소 반영비율, 평균 등급 등을 고려해야 합니다.
+현재 제공된 데이터에서는 동의대학교 소프트웨어공학부에 대한 구체적인 정보가 없습니다. 하지만 일반적으로 수능 4개 영역 등급의 평균이 4.07이고 표준 편차가 0.26인 것을 보면, 4.2는 상당히 좋은 성적입니다.
+특히, 지원자의 성적이 평균보다 높다면 경쟁률과 충원 인원 등을 고려하여 합격 가능성을 판단할 수 있습니다. 예를 들어, 모집 인원이 적고 지원자가 많지 않다면 4.2의 성적은 좋은 평가를 받을 가능성이 큽니다.
+더 정확한 판단을 위해서는 동의대학교 소프트웨어공학부의 최신 입학사정관이나 전형요소 반영비율, 평균 등급 등을 확인해 보시기 바랍니다. 필요하다면 "https://ipsi. deu. ac. kr/main. do" 링크를 참조하여 자세한 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 화학환경공학부의 평균 등급과 관련된 정보를 포함하고 있으며, 3.92라는 성적이 경쟁력을 가질 수 있다는 점에서 대체로 정확합니다. 그러나 구체적인 전형 요소나 경쟁률에 대한 정보는 원문에 명시되어 있지 않으므로 약간의 차이가 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 일치하는 부분이 있지만, 추가적인 요소를 고려해야 한다는 점에서 일관성이 떨어질 수 있습니다. 원문은 3.92 성적이 합격 가능성이 높다고 명시하고 있지만, 생성된 응답은 여러 요소를 고려해야 한다고 언급하고 있어 다소 상충하는 느낌을 줍니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다룬 주제와 관련이 깊으며, 3.92 성적이 화학환경공학부에 대한 경쟁력을 갖는지에 대한 정보를 제공하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 일부 정보가 추가되어 있어 원문과의 연결성이 약간 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 3.92 성적에 대한 정확한 평가를 제공하고 있으며, 전형 요소에 대한 정보도 포함되어 있습니다. 그러나 원문에 명시된 평균 등급과의 직접적인 비교가 부족하여 약간의 차이가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 일부 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 높으며, 주제에 적합한 내용을 담고 있습니다. 다만, 추가적인 요소가 포함되어 있어 약간의 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장에서 복잡한 정보가 포함되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C398" t="n">
+        <v>0.6501486544137423</v>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 산출로 3.92 나오는데 화학환경공학부 일반학생전형 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>3.92라는 성적이 화학환경공학부(화학공학과, 환경공학과, 응용화학과)의 일반 학생 전형에 충분히 경쟁력을 가질 수 있습니다.
+하지만 정확한 가능성을 판단하기 위해서는 다음과 같은 요소들을 고려해야 합니다:
+1. **학생부 교과성적 반영방법**: 2024년도에는 반영과목이 12과목으로 늘어났습니다. 이에 따라 성적이 더 중요해졌습니다.
+2. **전형요소 반영비율**: 2024년도에는 학생부교과가 60%, 면접이 40%로 구성되어 있습니다. 따라서 성적은 매우 중요한 요소입니다.
+3. **모집인원 및 경쟁률**: 화학환경공학부의 정원 내 모집 인원은 12명으로, 경쟁률이 높을 수 있으므로 우수한 성적이 필요합니다.
+4. **기타 평가 요소**: 면접 결과 등 기타 평가 요소도 고려해야 합니다.
+따라서 3.92라는 성적은 충분히 경쟁력을 가질 수 있지만, 최종 결정을 내리기 위해서는 정확한 모집요강과 경쟁률 등을 확인하시고, 학교 측에 문의하시는 것이 좋습니다.
+더 자세한 정보를 얻으시려면 [https://ipsi. deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)로 접속하여 공식 홈페이지에서 최신 모집요강을 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 동의대학교 화학환경공학부의 합격 가능성을 판단하기 위해 필요한 구체적인 정보를 제공하지 않고, 일반적인 조언을 하고 있습니다. 원본 텍스트에서 제공된 구체적인 데이터와 비교할 때, 응답은 사실적 정보가 부족합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용을 일부 반영하고 있으나, 합격 가능성에 대한 판단을 명확히 하지 않고 있습니다. 원본 텍스트는 성적이 평균보다 높다고 명시했지만, 생성된 응답은 이를 부정확하게 해석하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 동의대학교 화학환경공학부의 합격 가능성에 대한 질문에 관련된 정보를 제공하고 있으나, 원본 텍스트의 구체적인 데이터와 비교할 때 다소 일반적인 내용으로 흐르고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트의 명확한 결론을 반영하지 않고 있어 일관성이 떨어집니다. 원본 텍스트의 결론과는 다른 방향으로 전개되고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 구체적인 수치와 결론을 무시하고, 일반적인 조언을 제공하고 있습니다. 이는 정확한 정보 전달이 부족하다는 것을 의미합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 일부 차원에서 양호하지만, 사실성과 정확성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절하지만, 원본 텍스트의 맥락을 충분히 반영하지 못하고 있습니다. 따라서 의미 전달이 완벽하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 일부 문장은 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C399" t="n">
+        <v>0.6813847475970501</v>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.25인데 동의대학교 화학환경공학부에 수능 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 동의대학교 화학환경공학부에 수능 일반학생전형으로 합격 가능 여부를 정확히 판단하기 어렵습니다. 동의대학교의 수능 일반학생전형 합격 기준은 각 모집단위별로 다르므로, 화학환경공학부의 최신 합격 기준 점수와 지원자의 성적을 비교해야 합니다.
+화학환경공학부의 경우, 전형명이 "&lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 수능(일반학생전형)"에 해당하며, 모집단위는 "전 모집단위"입니다. 따라서, 지원자의 성적을 화학환경공학부의 최신 합격 기준 점수와 비교해야 합니다.
+만약 동의대학교의 화학환경공학부에서 2024년도에 발표된 최신 합격 기준 점수가 있다면, 그 점수를 참조하여 판단할 수 있습니다. 예를 들어, 만약 최신 합격 기준 점수가 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균 300점 이상이라면, 지원자의 성적 4.25는 충분히 경쟁력을 갖추고 있을 수 있습니다.
+따라서, 정확한 판단을 위해서는 동의대학교 화학환경공학부에서 공개한 최신 합격 기준 점수와 지원자의 성적을 비교해야 합니다. 만약 해당 정보가 없거나 더 자세한 조언이 필요하다면, https://ipsi. deu. ac. kr/main. do를 참조하여 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 4.2라는 점수가 좋은 성적이라는 점을 언급하고 있으며, 영화학과의 경쟁률과 평균 점수가 합격 가능성에 영향을 미친다고 설명하고 있습니다. 그러나 영화학과의 평균 점수와 표준 편차에 대한 구체적인 정보가 부족하여 약간의 부정확성이 존재합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 영화학과의 평균 점수와 표준 편차에 대한 정보가 없다고 언급하면서도, 유사한 학과의 데이터를 통해 예측을 시도하고 있습니다. 이로 인해 일관성이 다소 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 질문의 주제와 관련된 정보를 제공하고 있으며, 영화학과의 합격 가능성에 대한 논의가 주제를 잘 반영하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며, 읽기 쉽게 작성되어 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 일부 부분에서 정보의 흐름이 다소 끊길 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 4.2라는 점수가 좋은 성적이라는 점을 정확하게 반영하고 있으며, 경쟁률과 평균 점수의 중요성을 강조하고 있습니다. 그러나 영화학과의 구체적인 평균 점수와 표준 편차에 대한 정보가 부족하여 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 일부 정보의 부족으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 질문의 맥락에 적절하게 의미를 전달하고 있으며, 관련된 정보를 제공하고 있습니다. 다만, 일부 가정이 포함되어 있어 완전한 적절성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C400" t="n">
+        <v>0.6477136114999477</v>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>이번에 정시전형으로 영화학과 지원했습니다. 정시 성적이 4.2정도 나왔는데 합격 할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 상당히 좋은 성적입니다. 하지만 영화학과의 경쟁률과 평균 점수가 결정적인 요인일 것입니다. 제공된 데이터를 바탕으로 추정해보겠습니다.
+영화학과에 대한 정보가 직접적으로 주어지지 않았지만, 유사한 학과들의 경우를 통해 예측할 수 있습니다. 예를 들어, 미디어커뮤니케이션학과의 경우, 평균 점수가 4.22이고 표준 편차가 0.14입니다. 이는 매우 높은 성적을 요구하는 학과임을 나타냅니다.
+만약 영화학과의 평균 점수와 표준 편차가 유사하다고 가정한다면, 4.2라는 점수는 상당히 좋은 위치에 있을 것입니다. 그러나 경쟁률이 높다면 여전히 합격하기 어려울 수 있습니다.
+따라서, 영화학과의 정확한 평균 점수와 표준 편차를 확인하시고, 해당 학과의 경쟁률을 고려해야 합니다. 만약 이러한 정보가 제공되지 않는다면, "https://ipsi. deu. ac. kr/main. do" 링크를 통해 최신 정보를 확인하시는 것이 좋습니다.
+결론적으로, 4.2라는 점수는 좋은 성적일 것입니다만, 영화학과의 정확한 평균 점수와 표준 편차, 그리고 경쟁률을 고려해야 합격 가능성에 대한 확신을 가질 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 면접 절차에 대한 정확한 정보를 제공하고 있으며, 원본 텍스트의 내용을 잘 반영하고 있습니다. 그러나 추가된 블라인드 면접 방식에 대한 설명은 원본 텍스트에 포함되어 있지 않으므로, 완전한 일치를 이루지 못합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 면접 절차와 일관되며, 추가된 정보도 면접 절차와 관련이 있습니다. 그러나 원본 텍스트에 없는 정보가 포함되어 있어 약간의 일관성 부족이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 면접 절차에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으나, 추가된 정보가 원본 텍스트와의 연결이 약간 느슨하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 면접 절차에 대한 정확한 정보를 제공하지만, 원본 텍스트에 없는 추가 정보가 포함되어 있어 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으나, 원본 텍스트와의 완전한 일치를 이루지 못한 점에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가된 정보가 원본의 의미를 약간 변경할 수 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C401" t="n">
+        <v>0.7306501912677688</v>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>면접 절차를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실
+이 절차는 모든 면접 참여자에게 동일하게 적용되며, 블라인드 면접 방식으로 진행됩니다. 즉, 개인 신상 정보(수험번호, 성명, 출신고교, 부모 직업 등)를 노출하지 않고, 입학사정관 2인이 평가위원이 되어 수험생 1명을 대상으로 개별적 평가를 진행합니다.</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
